--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>34.66136272282289</v>
+      </c>
+      <c r="C2">
+        <v>27.70436155822497</v>
+      </c>
+      <c r="D2">
+        <v>7.363861729199088</v>
+      </c>
+      <c r="E2">
+        <v>5.664514981541334</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.021189422142052</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>23.89937332870947</v>
+      </c>
+      <c r="N2">
+        <v>19.62907591803228</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>31.97765640764997</v>
+      </c>
+      <c r="C3">
+        <v>25.53073476276227</v>
+      </c>
+      <c r="D3">
+        <v>6.793655902399403</v>
+      </c>
+      <c r="E3">
+        <v>5.373287986611254</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.043751540839929</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>22.03589488528321</v>
+      </c>
+      <c r="N3">
+        <v>19.15821529077098</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>30.28100551315003</v>
+      </c>
+      <c r="C4">
+        <v>24.15727156882844</v>
+      </c>
+      <c r="D4">
+        <v>6.432000292221031</v>
+      </c>
+      <c r="E4">
+        <v>5.196659360320482</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.057579522920937</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>20.85428996132941</v>
+      </c>
+      <c r="N4">
+        <v>18.87644288991667</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>29.57629313245899</v>
+      </c>
+      <c r="C5">
+        <v>23.5868799103857</v>
+      </c>
+      <c r="D5">
+        <v>6.281467959557135</v>
+      </c>
+      <c r="E5">
+        <v>5.12517311430966</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.063225889041234</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>20.36254548219079</v>
+      </c>
+      <c r="N5">
+        <v>18.76324926695914</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>29.45844612205904</v>
+      </c>
+      <c r="C6">
+        <v>23.49149724495542</v>
+      </c>
+      <c r="D6">
+        <v>6.256275011857502</v>
+      </c>
+      <c r="E6">
+        <v>5.113331508914924</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.064164612953615</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>20.28025214292058</v>
+      </c>
+      <c r="N6">
+        <v>18.74454659056369</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>30.27155662341676</v>
+      </c>
+      <c r="C7">
+        <v>24.14962346084263</v>
+      </c>
+      <c r="D7">
+        <v>6.429983238414764</v>
+      </c>
+      <c r="E7">
+        <v>5.195693333980966</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.057655604522325</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>20.84770054110129</v>
+      </c>
+      <c r="N7">
+        <v>18.87490996974247</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>33.74546391060229</v>
+      </c>
+      <c r="C8">
+        <v>26.96233982873792</v>
+      </c>
+      <c r="D8">
+        <v>7.169487091319867</v>
+      </c>
+      <c r="E8">
+        <v>5.563599233453327</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.028985721638894</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>23.26407526596148</v>
+      </c>
+      <c r="N8">
+        <v>19.46505632989643</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>40.231389319982</v>
+      </c>
+      <c r="C9">
+        <v>32.22377434894398</v>
+      </c>
+      <c r="D9">
+        <v>8.542037132230391</v>
+      </c>
+      <c r="E9">
+        <v>6.443723280371219</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.971563021205943</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>27.75157365795544</v>
+      </c>
+      <c r="N9">
+        <v>20.69335588766512</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>44.91444721495977</v>
+      </c>
+      <c r="C10">
+        <v>36.03638094602142</v>
+      </c>
+      <c r="D10">
+        <v>9.528816903282641</v>
+      </c>
+      <c r="E10">
+        <v>7.14938894382444</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.92678199914092</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>30.97994038190793</v>
+      </c>
+      <c r="N10">
+        <v>21.66422499678305</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>47.06690019975799</v>
+      </c>
+      <c r="C11">
+        <v>37.7939824348588</v>
+      </c>
+      <c r="D11">
+        <v>9.981540846120817</v>
+      </c>
+      <c r="E11">
+        <v>7.47331144956754</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.905222172053163</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>32.4617471770314</v>
+      </c>
+      <c r="N11">
+        <v>22.12964251261696</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>47.89016181314768</v>
+      </c>
+      <c r="C12">
+        <v>38.46723298306951</v>
+      </c>
+      <c r="D12">
+        <v>10.15458293132194</v>
+      </c>
+      <c r="E12">
+        <v>7.597114148683707</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.896808879150391</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>33.02825210841361</v>
+      </c>
+      <c r="N12">
+        <v>22.31044392387345</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>47.71239258517805</v>
+      </c>
+      <c r="C13">
+        <v>38.32180624682702</v>
+      </c>
+      <c r="D13">
+        <v>10.11722247812041</v>
+      </c>
+      <c r="E13">
+        <v>7.570385720911009</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.898633496011147</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>32.90593553605786</v>
+      </c>
+      <c r="N13">
+        <v>22.27127896494081</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>47.1344308056302</v>
+      </c>
+      <c r="C14">
+        <v>37.84918598921255</v>
+      </c>
+      <c r="D14">
+        <v>9.995737422879897</v>
+      </c>
+      <c r="E14">
+        <v>7.483468774997008</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.904535556194161</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>32.50822127591888</v>
+      </c>
+      <c r="N14">
+        <v>22.14441755500042</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>46.78165899690433</v>
+      </c>
+      <c r="C15">
+        <v>37.56085157255753</v>
+      </c>
+      <c r="D15">
+        <v>9.921571642810752</v>
+      </c>
+      <c r="E15">
+        <v>7.430404290307186</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.908115461200799</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>32.26543631727555</v>
+      </c>
+      <c r="N15">
+        <v>22.0673467571819</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>44.77460917951659</v>
+      </c>
+      <c r="C16">
+        <v>35.92231970650324</v>
+      </c>
+      <c r="D16">
+        <v>9.499388867595872</v>
+      </c>
+      <c r="E16">
+        <v>7.128334193450531</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.928161041559873</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>30.88363506860718</v>
+      </c>
+      <c r="N16">
+        <v>21.63437451051705</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>43.55201318209416</v>
+      </c>
+      <c r="C17">
+        <v>34.92569259756964</v>
+      </c>
+      <c r="D17">
+        <v>9.242010867080895</v>
+      </c>
+      <c r="E17">
+        <v>6.944205227680131</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.940106913859378</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>30.04142363011967</v>
+      </c>
+      <c r="N17">
+        <v>21.37552606800928</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>42.85050588079599</v>
+      </c>
+      <c r="C18">
+        <v>34.35431203981207</v>
+      </c>
+      <c r="D18">
+        <v>9.094254139039155</v>
+      </c>
+      <c r="E18">
+        <v>6.838518069651854</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.946871959071168</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>29.5579833088233</v>
+      </c>
+      <c r="N18">
+        <v>21.22879167550767</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>42.61315573433345</v>
+      </c>
+      <c r="C19">
+        <v>34.1610633952286</v>
+      </c>
+      <c r="D19">
+        <v>9.044248235048444</v>
+      </c>
+      <c r="E19">
+        <v>6.80275389855186</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.949146229369373</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>29.39438036543706</v>
+      </c>
+      <c r="N19">
+        <v>21.17945106240881</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>43.68195459937868</v>
+      </c>
+      <c r="C20">
+        <v>35.03156711863629</v>
+      </c>
+      <c r="D20">
+        <v>9.269373763848089</v>
+      </c>
+      <c r="E20">
+        <v>6.963779009584253</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.938846690581299</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>30.13095614177264</v>
+      </c>
+      <c r="N20">
+        <v>21.40285171831374</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>47.30392051451383</v>
+      </c>
+      <c r="C21">
+        <v>37.98775408140393</v>
+      </c>
+      <c r="D21">
+        <v>10.03136648386294</v>
+      </c>
+      <c r="E21">
+        <v>7.508960281639925</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.902809515949202</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>32.62485908943547</v>
+      </c>
+      <c r="N21">
+        <v>22.18154464057426</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>49.72273471374603</v>
+      </c>
+      <c r="C22">
+        <v>39.96807567688346</v>
+      </c>
+      <c r="D22">
+        <v>10.53956859775174</v>
+      </c>
+      <c r="E22">
+        <v>7.872485767108854</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.877742916461279</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>34.28887925353471</v>
+      </c>
+      <c r="N22">
+        <v>22.71796460635028</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>48.42480702274855</v>
+      </c>
+      <c r="C23">
+        <v>38.90477692588343</v>
+      </c>
+      <c r="D23">
+        <v>10.26692919498692</v>
+      </c>
+      <c r="E23">
+        <v>7.677484354820107</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.891294910344389</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>33.39608936327502</v>
+      </c>
+      <c r="N23">
+        <v>22.42863439050436</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>43.62320413496814</v>
+      </c>
+      <c r="C24">
+        <v>34.98369658545462</v>
+      </c>
+      <c r="D24">
+        <v>9.257002407123627</v>
+      </c>
+      <c r="E24">
+        <v>6.954929220279481</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.939416752285418</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>30.09047637330234</v>
+      </c>
+      <c r="N24">
+        <v>21.39049138875353</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>38.50165853452012</v>
+      </c>
+      <c r="C25">
+        <v>30.81882190047463</v>
+      </c>
+      <c r="D25">
+        <v>8.176784316270433</v>
+      </c>
+      <c r="E25">
+        <v>6.182835051291065</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.987387874539046</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>26.55706856926349</v>
+      </c>
+      <c r="N25">
+        <v>20.35133478563218</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.66136272282289</v>
+        <v>21.12893071781629</v>
       </c>
       <c r="C2">
-        <v>27.70436155822497</v>
+        <v>12.65296328170122</v>
       </c>
       <c r="D2">
-        <v>7.363861729199088</v>
+        <v>8.551445587448995</v>
       </c>
       <c r="E2">
-        <v>5.664514981541334</v>
+        <v>8.201398585973514</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.021189422142052</v>
+        <v>24.3495294887359</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.475720885428903</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.66133167985467</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.532550739994367</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.566400927035692</v>
       </c>
       <c r="M2">
-        <v>23.89937332870947</v>
+        <v>13.28915304062902</v>
       </c>
       <c r="N2">
-        <v>19.62907591803228</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.65915541658612</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.97765640764997</v>
+        <v>19.7174523979155</v>
       </c>
       <c r="C3">
-        <v>25.53073476276227</v>
+        <v>12.08076700278417</v>
       </c>
       <c r="D3">
-        <v>6.793655902399403</v>
+        <v>8.472216873518342</v>
       </c>
       <c r="E3">
-        <v>5.373287986611254</v>
+        <v>8.316615224002492</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.043751540839929</v>
+        <v>24.18986517575476</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.568394455932431</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.99135852156359</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.531997283142349</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.44015600733619</v>
       </c>
       <c r="M3">
-        <v>22.03589488528321</v>
+        <v>12.65788380244694</v>
       </c>
       <c r="N3">
-        <v>19.15821529077098</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.73970010904898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.28100551315003</v>
+        <v>18.79861681937774</v>
       </c>
       <c r="C4">
-        <v>24.15727156882844</v>
+        <v>11.71549587071959</v>
       </c>
       <c r="D4">
-        <v>6.432000292221031</v>
+        <v>8.428677770676313</v>
       </c>
       <c r="E4">
-        <v>5.196659360320482</v>
+        <v>8.390295638011091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.057579522920937</v>
+        <v>24.12539991143802</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.63211520241979</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.20534909934382</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.532092617786577</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.364238571848826</v>
       </c>
       <c r="M4">
-        <v>20.85428996132941</v>
+        <v>12.2565461224667</v>
       </c>
       <c r="N4">
-        <v>18.87644288991667</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.80500221521293</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.57629313245899</v>
+        <v>18.41099149746599</v>
       </c>
       <c r="C5">
-        <v>23.5868799103857</v>
+        <v>11.56327198069201</v>
       </c>
       <c r="D5">
-        <v>6.281467959557135</v>
+        <v>8.412208088100961</v>
       </c>
       <c r="E5">
-        <v>5.12517311430966</v>
+        <v>8.421059700697979</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.063225889041234</v>
+        <v>24.10726419823677</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.659733214301284</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.29531540463111</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.532240230576932</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.333729634662175</v>
       </c>
       <c r="M5">
-        <v>20.36254548219079</v>
+        <v>12.08972771300093</v>
       </c>
       <c r="N5">
-        <v>18.76324926695914</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.83542222575666</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.45844612205904</v>
+        <v>18.34582777947302</v>
       </c>
       <c r="C6">
-        <v>23.49149724495542</v>
+        <v>11.53779591707188</v>
       </c>
       <c r="D6">
-        <v>6.256275011857502</v>
+        <v>8.409549794419391</v>
       </c>
       <c r="E6">
-        <v>5.113331508914924</v>
+        <v>8.42621267818126</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.064164612953615</v>
+        <v>24.10473462350492</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.664417112102065</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.31041868706053</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.532271292206652</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.328690261521845</v>
       </c>
       <c r="M6">
-        <v>20.28025214292058</v>
+        <v>12.06183611915339</v>
       </c>
       <c r="N6">
-        <v>18.74454659056369</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.84069840887946</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.27155662341676</v>
+        <v>18.79344267711247</v>
       </c>
       <c r="C7">
-        <v>24.14962346084263</v>
+        <v>11.7134563914961</v>
       </c>
       <c r="D7">
-        <v>6.429983238414764</v>
+        <v>8.428450518334413</v>
       </c>
       <c r="E7">
-        <v>5.195693333980966</v>
+        <v>8.390707541407254</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.057655604522325</v>
+        <v>24.12512281466939</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.632481063726313</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.20655133990133</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.53209416900108</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.363825350082963</v>
       </c>
       <c r="M7">
-        <v>20.84770054110129</v>
+        <v>12.25430932583218</v>
       </c>
       <c r="N7">
-        <v>18.87490996974247</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.80539727830622</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.74546391060229</v>
+        <v>20.65304032628604</v>
       </c>
       <c r="C8">
-        <v>26.96233982873792</v>
+        <v>12.45863597129167</v>
       </c>
       <c r="D8">
-        <v>7.169487091319867</v>
+        <v>8.523061374250149</v>
       </c>
       <c r="E8">
-        <v>5.563599233453327</v>
+        <v>8.240515715964165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.028985721638894</v>
+        <v>24.28733352199031</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.506220293820055</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.77271009255935</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.532269175063758</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.522556023428184</v>
       </c>
       <c r="M8">
-        <v>23.26407526596148</v>
+        <v>13.07444336047588</v>
       </c>
       <c r="N8">
-        <v>19.46505632989643</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.68353125249733</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40.231389319982</v>
+        <v>23.88892864710731</v>
       </c>
       <c r="C9">
-        <v>32.22377434894398</v>
+        <v>13.80458916663566</v>
       </c>
       <c r="D9">
-        <v>8.542037132230391</v>
+        <v>8.749502882439101</v>
       </c>
       <c r="E9">
-        <v>6.443723280371219</v>
+        <v>7.969303855884337</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.971563021205943</v>
+        <v>24.88401948118599</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.315750661610252</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.01678690850967</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.536098661455538</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.845342685133754</v>
       </c>
       <c r="M9">
-        <v>27.75157365795544</v>
+        <v>14.56713208196827</v>
       </c>
       <c r="N9">
-        <v>20.69335588766512</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.57830056922035</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.91444721495977</v>
+        <v>26.0205408590302</v>
       </c>
       <c r="C10">
-        <v>36.03638094602142</v>
+        <v>14.71816250550988</v>
       </c>
       <c r="D10">
-        <v>9.528816903282641</v>
+        <v>8.941170269430797</v>
       </c>
       <c r="E10">
-        <v>7.14938894382444</v>
+        <v>7.784308242019546</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.92678199914092</v>
+        <v>25.50663997135382</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.215077384304156</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.52696163424047</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.541089893784081</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.087996458915311</v>
       </c>
       <c r="M10">
-        <v>30.97994038190793</v>
+        <v>15.58633437715262</v>
       </c>
       <c r="N10">
-        <v>21.66422499678305</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.59359399930368</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47.06690019975799</v>
+        <v>26.93792169681155</v>
       </c>
       <c r="C11">
-        <v>37.7939824348588</v>
+        <v>15.11670075455613</v>
       </c>
       <c r="D11">
-        <v>9.981540846120817</v>
+        <v>9.03389221821581</v>
       </c>
       <c r="E11">
-        <v>7.47331144956754</v>
+        <v>7.703272869999601</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.905222172053163</v>
+        <v>25.8322846874306</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.178848997749514</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.320449889385</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.543846394797594</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.199276204224045</v>
       </c>
       <c r="M11">
-        <v>32.4617471770314</v>
+        <v>16.03214498162423</v>
       </c>
       <c r="N11">
-        <v>22.12964251261696</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.62304097441082</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.89016181314768</v>
+        <v>27.27787411293746</v>
       </c>
       <c r="C12">
-        <v>38.46723298306951</v>
+        <v>15.26512276629994</v>
       </c>
       <c r="D12">
-        <v>10.15458293132194</v>
+        <v>9.06979898105115</v>
       </c>
       <c r="E12">
-        <v>7.597114148683707</v>
+        <v>7.673039388070449</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.896808879150391</v>
+        <v>25.96184693404729</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.166598690833769</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.2448026715648</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.54496126134745</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.24151988773718</v>
       </c>
       <c r="M12">
-        <v>33.02825210841361</v>
+        <v>16.19833677999201</v>
       </c>
       <c r="N12">
-        <v>22.31044392387345</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.63761966997223</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.71239258517805</v>
+        <v>27.2049888520926</v>
       </c>
       <c r="C13">
-        <v>38.32180624682702</v>
+        <v>15.23326900212898</v>
       </c>
       <c r="D13">
-        <v>10.11722247812041</v>
+        <v>9.06203047862132</v>
       </c>
       <c r="E13">
-        <v>7.570385720911009</v>
+        <v>7.679530489200255</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.898633496011147</v>
+        <v>25.93366346567129</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.169170170886009</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.26097741387555</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.544717975781773</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.232417676067193</v>
       </c>
       <c r="M13">
-        <v>32.90593553605786</v>
+        <v>16.16266207286436</v>
       </c>
       <c r="N13">
-        <v>22.27127896494081</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.63432438094485</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47.1344308056302</v>
+        <v>26.96603841991785</v>
       </c>
       <c r="C14">
-        <v>37.84918598921255</v>
+        <v>15.12896175048296</v>
       </c>
       <c r="D14">
-        <v>9.995737422879897</v>
+        <v>9.03683036303979</v>
       </c>
       <c r="E14">
-        <v>7.483468774997008</v>
+        <v>7.700776439176013</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.904535556194161</v>
+        <v>25.84281789243674</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.177811176948504</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.31417385582057</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.543936684781241</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.202749656631665</v>
       </c>
       <c r="M14">
-        <v>32.50822127591888</v>
+        <v>16.04587063395022</v>
       </c>
       <c r="N14">
-        <v>22.14441755500042</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.62417057492581</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.78165899690433</v>
+        <v>26.81870793862677</v>
       </c>
       <c r="C15">
-        <v>37.56085157255753</v>
+        <v>15.06474442704967</v>
       </c>
       <c r="D15">
-        <v>9.921571642810752</v>
+        <v>9.021498062069613</v>
       </c>
       <c r="E15">
-        <v>7.430404290307186</v>
+        <v>7.713849316395717</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.908115461200799</v>
+        <v>25.78798989212802</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.183298129336771</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.34709754829398</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.543467409143036</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.184590051690451</v>
       </c>
       <c r="M15">
-        <v>32.26543631727555</v>
+        <v>15.97398879626216</v>
       </c>
       <c r="N15">
-        <v>22.0673467571819</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.61840317613918</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.77460917951659</v>
+        <v>25.95954231594036</v>
       </c>
       <c r="C16">
-        <v>35.92231970650324</v>
+        <v>14.69176995654131</v>
       </c>
       <c r="D16">
-        <v>9.499388867595872</v>
+        <v>8.935221967270117</v>
       </c>
       <c r="E16">
-        <v>7.128334193450531</v>
+        <v>7.789667210298933</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.928161041559873</v>
+        <v>25.48622517879419</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.217645348201344</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.54080308365472</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.540919625395746</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.080739965751768</v>
       </c>
       <c r="M16">
-        <v>30.88363506860718</v>
+        <v>15.55683505519274</v>
       </c>
       <c r="N16">
-        <v>21.63437451051705</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.59213874383131</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.55201318209416</v>
+        <v>25.41913357404365</v>
       </c>
       <c r="C17">
-        <v>34.92569259756964</v>
+        <v>14.45855991657286</v>
       </c>
       <c r="D17">
-        <v>9.242010867080895</v>
+        <v>8.883711183050568</v>
       </c>
       <c r="E17">
-        <v>6.944205227680131</v>
+        <v>7.836980784653223</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.940106913859378</v>
+        <v>25.31208064764011</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.241231375875138</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.663952563108</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.53948190061445</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.017242789104676</v>
       </c>
       <c r="M17">
-        <v>30.04142363011967</v>
+        <v>15.29630793299815</v>
       </c>
       <c r="N17">
-        <v>21.37552606800928</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.58192517230177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.85050588079599</v>
+        <v>25.10337704374891</v>
       </c>
       <c r="C18">
-        <v>34.35431203981207</v>
+        <v>14.32282055705636</v>
       </c>
       <c r="D18">
-        <v>9.094254139039155</v>
+        <v>8.854604310557612</v>
       </c>
       <c r="E18">
-        <v>6.838518069651854</v>
+        <v>7.864487660381507</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.946871959071168</v>
+        <v>25.21590242511548</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.255692216157868</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.73630612061271</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.538700625128219</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.980806518717813</v>
       </c>
       <c r="M18">
-        <v>29.5579833088233</v>
+        <v>15.14478406436498</v>
       </c>
       <c r="N18">
-        <v>21.22879167550767</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.57815597855245</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.61315573433345</v>
+        <v>24.99561853853896</v>
       </c>
       <c r="C19">
-        <v>34.1610633952286</v>
+        <v>14.27658774473023</v>
       </c>
       <c r="D19">
-        <v>9.044248235048444</v>
+        <v>8.844838660675112</v>
       </c>
       <c r="E19">
-        <v>6.80275389855186</v>
+        <v>7.873851291186687</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.949146229369373</v>
+        <v>25.18401753639611</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.260739341994729</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.76105917494249</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.53844390824453</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.968485298527655</v>
       </c>
       <c r="M19">
-        <v>29.39438036543706</v>
+        <v>15.09319510249171</v>
       </c>
       <c r="N19">
-        <v>21.17945106240881</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.57723545260973</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.68195459937868</v>
+        <v>25.47717042770017</v>
       </c>
       <c r="C20">
-        <v>35.03156711863629</v>
+        <v>14.4835517959736</v>
       </c>
       <c r="D20">
-        <v>9.269373763848089</v>
+        <v>8.889140696165557</v>
       </c>
       <c r="E20">
-        <v>6.963779009584253</v>
+        <v>7.83191378559539</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.938846690581299</v>
+        <v>25.33020501151981</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.238627340423882</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.65068422944148</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.539630214586668</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.023993491547806</v>
       </c>
       <c r="M20">
-        <v>30.13095614177264</v>
+        <v>15.32421541315395</v>
       </c>
       <c r="N20">
-        <v>21.40285171831374</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.58279311381666</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.30392051451383</v>
+        <v>27.03642521209616</v>
       </c>
       <c r="C21">
-        <v>37.98775408140393</v>
+        <v>15.15966734349458</v>
       </c>
       <c r="D21">
-        <v>10.03136648386294</v>
+        <v>9.044210681260344</v>
       </c>
       <c r="E21">
-        <v>7.508960281639925</v>
+        <v>7.694523659084965</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.902809515949202</v>
+        <v>25.86933084135186</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.175232484464885</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.29847764002974</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.544164231125854</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.211461222665434</v>
       </c>
       <c r="M21">
-        <v>32.62485908943547</v>
+        <v>16.08024682949542</v>
       </c>
       <c r="N21">
-        <v>22.18154464057426</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.62705843485241</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.72273471374603</v>
+        <v>28.01216270129023</v>
       </c>
       <c r="C22">
-        <v>39.96807567688346</v>
+        <v>15.58698851511099</v>
       </c>
       <c r="D22">
-        <v>10.53956859775174</v>
+        <v>9.150190756403362</v>
       </c>
       <c r="E22">
-        <v>7.872485767108854</v>
+        <v>7.607373669363506</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.877742916461279</v>
+        <v>26.25814551383332</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.142406768751957</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.08329709164775</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.547542162733921</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.334581174979229</v>
       </c>
       <c r="M22">
-        <v>34.28887925353471</v>
+        <v>16.55902665565258</v>
       </c>
       <c r="N22">
-        <v>22.71796460635028</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.6760557094761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.42480702274855</v>
+        <v>27.49533021567804</v>
       </c>
       <c r="C23">
-        <v>38.90477692588343</v>
+        <v>15.36026280272339</v>
       </c>
       <c r="D23">
-        <v>10.26692919498692</v>
+        <v>9.093203681211531</v>
       </c>
       <c r="E23">
-        <v>7.677484354820107</v>
+        <v>7.653643781198939</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.891294910344389</v>
+        <v>26.04724965501959</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.159107122043965</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.19669315945224</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.545700941370423</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.268822474153929</v>
       </c>
       <c r="M23">
-        <v>33.39608936327502</v>
+        <v>16.30491233607186</v>
       </c>
       <c r="N23">
-        <v>22.42863439050436</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.64800553570399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.62320413496814</v>
+        <v>25.45094775902566</v>
       </c>
       <c r="C24">
-        <v>34.98369658545462</v>
+        <v>14.47225814620515</v>
       </c>
       <c r="D24">
-        <v>9.257002407123627</v>
+        <v>8.886684432935905</v>
       </c>
       <c r="E24">
-        <v>6.954929220279481</v>
+        <v>7.834203624072781</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.939416752285418</v>
+        <v>25.32199872667189</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.239801825649902</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.65667802037348</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.539563020852663</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.020941281869195</v>
       </c>
       <c r="M24">
-        <v>30.09047637330234</v>
+        <v>15.31160386657525</v>
       </c>
       <c r="N24">
-        <v>21.39049138875353</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.58239418265795</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.50165853452012</v>
+        <v>23.05703995788764</v>
       </c>
       <c r="C25">
-        <v>30.81882190047463</v>
+        <v>13.45340247359939</v>
       </c>
       <c r="D25">
-        <v>8.176784316270433</v>
+        <v>8.683818307733295</v>
       </c>
       <c r="E25">
-        <v>6.182835051291065</v>
+        <v>8.040175285803244</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.987387874539046</v>
+        <v>24.69116350860131</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.360720099724572</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.21040276753354</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.534684319771085</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.756946532522973</v>
       </c>
       <c r="M25">
-        <v>26.55706856926349</v>
+        <v>14.17650968605687</v>
       </c>
       <c r="N25">
-        <v>20.35133478563218</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.59131121041333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.12893071781629</v>
+        <v>16.67922716492379</v>
       </c>
       <c r="C2">
-        <v>12.65296328170122</v>
+        <v>9.632965862483871</v>
       </c>
       <c r="D2">
-        <v>8.551445587448995</v>
+        <v>13.60841902117526</v>
       </c>
       <c r="E2">
-        <v>8.201398585973514</v>
+        <v>14.26841639269425</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.3495294887359</v>
+        <v>36.27739680435264</v>
       </c>
       <c r="H2">
-        <v>9.475720885428903</v>
+        <v>16.27977929898239</v>
       </c>
       <c r="I2">
-        <v>14.66133167985467</v>
+        <v>25.41976137925523</v>
       </c>
       <c r="J2">
-        <v>5.532550739994367</v>
+        <v>8.719340851021675</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.566400927035692</v>
+        <v>12.14883454313697</v>
       </c>
       <c r="M2">
-        <v>13.28915304062902</v>
+        <v>16.78666016794496</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.65915541658612</v>
+        <v>25.76089114848177</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7174523979155</v>
+        <v>16.16251391883767</v>
       </c>
       <c r="C3">
-        <v>12.08076700278417</v>
+        <v>9.382459071776754</v>
       </c>
       <c r="D3">
-        <v>8.472216873518342</v>
+        <v>13.63434335967346</v>
       </c>
       <c r="E3">
-        <v>8.316615224002492</v>
+        <v>14.31617856532036</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.18986517575476</v>
+        <v>36.43403082400665</v>
       </c>
       <c r="H3">
-        <v>9.568394455932431</v>
+        <v>16.34338254337887</v>
       </c>
       <c r="I3">
-        <v>14.99135852156359</v>
+        <v>25.56296289311177</v>
       </c>
       <c r="J3">
-        <v>5.531997283142349</v>
+        <v>8.722282103060175</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.44015600733619</v>
+        <v>12.14868545827624</v>
       </c>
       <c r="M3">
-        <v>12.65788380244694</v>
+        <v>16.66279818476387</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.73970010904898</v>
+        <v>25.87232410170649</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.79861681937774</v>
+        <v>15.83747240677303</v>
       </c>
       <c r="C4">
-        <v>11.71549587071959</v>
+        <v>9.224522586750117</v>
       </c>
       <c r="D4">
-        <v>8.428677770676313</v>
+        <v>13.65267248625726</v>
       </c>
       <c r="E4">
-        <v>8.390295638011091</v>
+        <v>14.34715210946347</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.12539991143802</v>
+        <v>36.54172794603139</v>
       </c>
       <c r="H4">
-        <v>9.63211520241979</v>
+        <v>16.38524914224095</v>
       </c>
       <c r="I4">
-        <v>15.20534909934382</v>
+        <v>25.65604171636899</v>
       </c>
       <c r="J4">
-        <v>5.532092617786577</v>
+        <v>8.72431288902915</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.364238571848826</v>
+        <v>12.14996206210056</v>
       </c>
       <c r="M4">
-        <v>12.2565461224667</v>
+        <v>16.58780344402676</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.80500221521293</v>
+        <v>25.9465351711187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.41099149746599</v>
+        <v>15.70324218416679</v>
       </c>
       <c r="C5">
-        <v>11.56327198069201</v>
+        <v>9.159194724790803</v>
       </c>
       <c r="D5">
-        <v>8.412208088100961</v>
+        <v>13.66074795401442</v>
       </c>
       <c r="E5">
-        <v>8.421059700697979</v>
+        <v>14.36018930332244</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.10726419823677</v>
+        <v>36.5884998758572</v>
       </c>
       <c r="H5">
-        <v>9.659733214301284</v>
+        <v>16.40301772752783</v>
       </c>
       <c r="I5">
-        <v>15.29531540463111</v>
+        <v>25.69526882283675</v>
       </c>
       <c r="J5">
-        <v>5.532240230576932</v>
+        <v>8.725197194826812</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.333729634662175</v>
+        <v>12.15082748215871</v>
       </c>
       <c r="M5">
-        <v>12.08972771300093</v>
+        <v>16.55753066780196</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.83542222575666</v>
+        <v>25.97823040405314</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.34582777947302</v>
+        <v>15.68085188583087</v>
       </c>
       <c r="C6">
-        <v>11.53779591707188</v>
+        <v>9.148290778528791</v>
       </c>
       <c r="D6">
-        <v>8.409549794419391</v>
+        <v>13.66212548504104</v>
       </c>
       <c r="E6">
-        <v>8.42621267818126</v>
+        <v>14.36237922668747</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.10473462350492</v>
+        <v>36.5964401425693</v>
       </c>
       <c r="H6">
-        <v>9.664417112102065</v>
+        <v>16.40601092602587</v>
       </c>
       <c r="I6">
-        <v>15.31041868706053</v>
+        <v>25.70186080637947</v>
       </c>
       <c r="J6">
-        <v>5.532271292206652</v>
+        <v>8.725347466346946</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.328690261521845</v>
+        <v>12.15099206568351</v>
       </c>
       <c r="M6">
-        <v>12.06183611915339</v>
+        <v>16.55252194733416</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.84069840887946</v>
+        <v>25.98358109452657</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.79344267711247</v>
+        <v>15.83566905853966</v>
       </c>
       <c r="C7">
-        <v>11.7134563914961</v>
+        <v>9.223645374090285</v>
       </c>
       <c r="D7">
-        <v>8.428450518334413</v>
+        <v>13.65277894066718</v>
       </c>
       <c r="E7">
-        <v>8.390707541407254</v>
+        <v>14.34732625109405</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.12512281466939</v>
+        <v>36.54234706717782</v>
       </c>
       <c r="H7">
-        <v>9.632481063726313</v>
+        <v>16.38548591050109</v>
       </c>
       <c r="I7">
-        <v>15.20655133990133</v>
+        <v>25.6565654949609</v>
       </c>
       <c r="J7">
-        <v>5.53209416900108</v>
+        <v>8.724324585060838</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.363825350082963</v>
+        <v>12.14997233430729</v>
       </c>
       <c r="M7">
-        <v>12.25430932583218</v>
+        <v>16.58739397868963</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.80539727830622</v>
+        <v>25.94695674181665</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65304032628604</v>
+        <v>16.50278361054561</v>
       </c>
       <c r="C8">
-        <v>12.45863597129167</v>
+        <v>9.547487411875315</v>
       </c>
       <c r="D8">
-        <v>8.523061374250149</v>
+        <v>13.61685714478484</v>
       </c>
       <c r="E8">
-        <v>8.240515715964165</v>
+        <v>14.28454346555867</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.28733352199031</v>
+        <v>36.32900481413476</v>
       </c>
       <c r="H8">
-        <v>9.506220293820055</v>
+        <v>16.30112567146091</v>
       </c>
       <c r="I8">
-        <v>14.77271009255935</v>
+        <v>25.46806850605321</v>
       </c>
       <c r="J8">
-        <v>5.532269175063758</v>
+        <v>8.720308450543742</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.522556023428184</v>
+        <v>12.14849990075747</v>
       </c>
       <c r="M8">
-        <v>13.07444336047588</v>
+        <v>16.74374673918236</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.68353125249733</v>
+        <v>25.79810984507776</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.88892864710731</v>
+        <v>17.7420131166431</v>
       </c>
       <c r="C9">
-        <v>13.80458916663566</v>
+        <v>10.14700273091788</v>
       </c>
       <c r="D9">
-        <v>8.749502882439101</v>
+        <v>13.56555422846359</v>
       </c>
       <c r="E9">
-        <v>7.969303855884337</v>
+        <v>14.1744531675895</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.88401948118599</v>
+        <v>36.00263978910026</v>
       </c>
       <c r="H9">
-        <v>9.315750661610252</v>
+        <v>16.15802209268181</v>
       </c>
       <c r="I9">
-        <v>14.01678690850967</v>
+        <v>25.13925956538425</v>
       </c>
       <c r="J9">
-        <v>5.536098661455538</v>
+        <v>8.71420800861441</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.845342685133754</v>
+        <v>12.15641482940944</v>
       </c>
       <c r="M9">
-        <v>14.56713208196827</v>
+        <v>17.05774004640709</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.57830056922035</v>
+        <v>25.55228065479209</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0205408590302</v>
+        <v>18.6017268790866</v>
       </c>
       <c r="C10">
-        <v>14.71816250550988</v>
+        <v>10.56237934576975</v>
       </c>
       <c r="D10">
-        <v>8.941170269430797</v>
+        <v>13.53953358460117</v>
       </c>
       <c r="E10">
-        <v>7.784308242019546</v>
+        <v>14.10144858250993</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.50663997135382</v>
+        <v>35.81968877065586</v>
       </c>
       <c r="H10">
-        <v>9.215077384304156</v>
+        <v>16.06649346806607</v>
       </c>
       <c r="I10">
-        <v>13.52696163424047</v>
+        <v>24.92250690396454</v>
       </c>
       <c r="J10">
-        <v>5.541089893784081</v>
+        <v>8.710796503333343</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.087996458915311</v>
+        <v>12.16874071203914</v>
       </c>
       <c r="M10">
-        <v>15.58633437715262</v>
+        <v>17.29157402781728</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.59359399930368</v>
+        <v>25.39990054749265</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.93792169681155</v>
+        <v>18.98026083593876</v>
       </c>
       <c r="C11">
-        <v>15.11670075455613</v>
+        <v>10.74527007167375</v>
       </c>
       <c r="D11">
-        <v>9.03389221821581</v>
+        <v>13.53022924365725</v>
       </c>
       <c r="E11">
-        <v>7.703272869999601</v>
+        <v>14.06993446623241</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.8322846874306</v>
+        <v>35.74894775358678</v>
       </c>
       <c r="H11">
-        <v>9.178848997749514</v>
+        <v>16.02781000132628</v>
       </c>
       <c r="I11">
-        <v>13.320449889385</v>
+        <v>24.82927711691676</v>
       </c>
       <c r="J11">
-        <v>5.543846394797594</v>
+        <v>8.709474503279088</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.199276204224045</v>
+        <v>12.17574418694946</v>
       </c>
       <c r="M11">
-        <v>16.03214498162423</v>
+        <v>17.39834028012105</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.62304097441082</v>
+        <v>25.33674122009476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.27787411293746</v>
+        <v>19.12168507547964</v>
       </c>
       <c r="C12">
-        <v>15.26512276629994</v>
+        <v>10.81360755341761</v>
       </c>
       <c r="D12">
-        <v>9.06979898105115</v>
+        <v>13.52706980150689</v>
       </c>
       <c r="E12">
-        <v>7.673039388070449</v>
+        <v>14.05824379642459</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.96184693404729</v>
+        <v>35.72396643777396</v>
       </c>
       <c r="H12">
-        <v>9.166598690833769</v>
+        <v>16.01358638185908</v>
       </c>
       <c r="I12">
-        <v>13.2448026715648</v>
+        <v>24.79474518477258</v>
       </c>
       <c r="J12">
-        <v>5.54496126134745</v>
+        <v>8.709006752177222</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.24151988773718</v>
+        <v>12.17859533848557</v>
       </c>
       <c r="M12">
-        <v>16.19833677999201</v>
+        <v>17.43880168145564</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.63761966997223</v>
+        <v>25.31371282639365</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.2049888520926</v>
+        <v>19.09131382248775</v>
       </c>
       <c r="C13">
-        <v>15.23326900212898</v>
+        <v>10.79893143912935</v>
       </c>
       <c r="D13">
-        <v>9.06203047862132</v>
+        <v>13.52773406451008</v>
       </c>
       <c r="E13">
-        <v>7.679530489200255</v>
+        <v>14.06075079532981</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.93366346567129</v>
+        <v>35.72926607805137</v>
       </c>
       <c r="H13">
-        <v>9.169170170886009</v>
+        <v>16.01663078753873</v>
       </c>
       <c r="I13">
-        <v>13.26097741387555</v>
+        <v>24.80214791642434</v>
       </c>
       <c r="J13">
-        <v>5.544717975781773</v>
+        <v>8.709106032384573</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.232417676067193</v>
+        <v>12.17797246572274</v>
       </c>
       <c r="M13">
-        <v>16.16266207286436</v>
+        <v>17.43008660324348</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.63432438094485</v>
+        <v>25.31863283167329</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.96603841991785</v>
+        <v>18.99193494325502</v>
       </c>
       <c r="C14">
-        <v>15.12896175048296</v>
+        <v>10.75091091406522</v>
       </c>
       <c r="D14">
-        <v>9.03683036303979</v>
+        <v>13.52996202313301</v>
       </c>
       <c r="E14">
-        <v>7.700776439176013</v>
+        <v>14.06896780167097</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.84281789243674</v>
+        <v>35.74685625165287</v>
       </c>
       <c r="H14">
-        <v>9.177811176948504</v>
+        <v>16.02663129690739</v>
       </c>
       <c r="I14">
-        <v>13.31417385582057</v>
+        <v>24.82642068036667</v>
       </c>
       <c r="J14">
-        <v>5.543936684781241</v>
+        <v>8.709435363658232</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.202749656631665</v>
+        <v>12.17597477301155</v>
       </c>
       <c r="M14">
-        <v>16.04587063395022</v>
+        <v>17.40166858064252</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.62417057492581</v>
+        <v>25.3348288329099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.81870793862677</v>
+        <v>18.93080954142727</v>
       </c>
       <c r="C15">
-        <v>15.06474442704967</v>
+        <v>10.72137592261682</v>
       </c>
       <c r="D15">
-        <v>9.021498062069613</v>
+        <v>13.53137409383292</v>
       </c>
       <c r="E15">
-        <v>7.713849316395717</v>
+        <v>14.07403258165799</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.78798989212802</v>
+        <v>35.75786636668352</v>
       </c>
       <c r="H15">
-        <v>9.183298129336771</v>
+        <v>16.03281224983533</v>
       </c>
       <c r="I15">
-        <v>13.34709754829398</v>
+        <v>24.84138899927495</v>
       </c>
       <c r="J15">
-        <v>5.543467409143036</v>
+        <v>8.709641362220568</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.184590051690451</v>
+        <v>12.17477700330838</v>
       </c>
       <c r="M15">
-        <v>15.97398879626216</v>
+        <v>17.38426505225497</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.61840317613918</v>
+        <v>25.34486517113313</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95954231594036</v>
+        <v>18.57672621821951</v>
       </c>
       <c r="C16">
-        <v>14.69176995654131</v>
+        <v>10.55030082329704</v>
       </c>
       <c r="D16">
-        <v>8.935221967270117</v>
+        <v>13.54019258658154</v>
       </c>
       <c r="E16">
-        <v>7.789667210298933</v>
+        <v>14.10354216014252</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.48622517879419</v>
+        <v>35.82456408123161</v>
       </c>
       <c r="H16">
-        <v>9.217645348201344</v>
+        <v>16.06908097638315</v>
       </c>
       <c r="I16">
-        <v>13.54080308365472</v>
+        <v>24.92870775943597</v>
       </c>
       <c r="J16">
-        <v>5.540919625395746</v>
+        <v>8.710887508494002</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.080739965751768</v>
+        <v>12.16831097309834</v>
       </c>
       <c r="M16">
-        <v>15.55683505519274</v>
+        <v>17.28460236489736</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.59213874383131</v>
+        <v>25.40415235254508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.41913357404365</v>
+        <v>18.35620765435367</v>
       </c>
       <c r="C17">
-        <v>14.45855991657286</v>
+        <v>10.44376325726345</v>
       </c>
       <c r="D17">
-        <v>8.883711183050568</v>
+        <v>13.54625094449733</v>
       </c>
       <c r="E17">
-        <v>7.836980784653223</v>
+        <v>14.12207912082511</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.31208064764011</v>
+        <v>35.86868693092529</v>
       </c>
       <c r="H17">
-        <v>9.241231375875138</v>
+        <v>16.09208728684326</v>
       </c>
       <c r="I17">
-        <v>13.663952563108</v>
+        <v>24.98365064666815</v>
       </c>
       <c r="J17">
-        <v>5.53948190061445</v>
+        <v>8.711710722609203</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.017242789104676</v>
+        <v>12.16470073093027</v>
       </c>
       <c r="M17">
-        <v>15.29630793299815</v>
+        <v>17.22354541921776</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.58192517230177</v>
+        <v>25.44210276342808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10337704374891</v>
+        <v>18.22819548170234</v>
       </c>
       <c r="C18">
-        <v>14.32282055705636</v>
+        <v>10.38191720511101</v>
       </c>
       <c r="D18">
-        <v>8.854604310557612</v>
+        <v>13.54997395387581</v>
       </c>
       <c r="E18">
-        <v>7.864487660381507</v>
+        <v>14.13290077909214</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.21590242511548</v>
+        <v>35.89523966187879</v>
       </c>
       <c r="H18">
-        <v>9.255692216157868</v>
+        <v>16.10559787495026</v>
       </c>
       <c r="I18">
-        <v>13.73630612061271</v>
+        <v>25.01575800320142</v>
       </c>
       <c r="J18">
-        <v>5.538700625128219</v>
+        <v>8.712205865769224</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.980806518717813</v>
+        <v>12.16275575619985</v>
       </c>
       <c r="M18">
-        <v>15.14478406436498</v>
+        <v>17.18846567849853</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.57815597855245</v>
+        <v>25.46451038667673</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.99561853853896</v>
+        <v>18.18465448061897</v>
       </c>
       <c r="C19">
-        <v>14.27658774473023</v>
+        <v>10.36088106500389</v>
       </c>
       <c r="D19">
-        <v>8.844838660675112</v>
+        <v>13.55127545304402</v>
       </c>
       <c r="E19">
-        <v>7.873851291186687</v>
+        <v>14.13659225929468</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.18401753639611</v>
+        <v>35.90443130781518</v>
       </c>
       <c r="H19">
-        <v>9.260739341994729</v>
+        <v>16.1102200607524</v>
       </c>
       <c r="I19">
-        <v>13.76105917494249</v>
+        <v>25.02671586176311</v>
       </c>
       <c r="J19">
-        <v>5.53844390824453</v>
+        <v>8.712377237597924</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.968485298527655</v>
+        <v>12.16211986399696</v>
       </c>
       <c r="M19">
-        <v>15.09319510249171</v>
+        <v>17.17659568282218</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.57723545260973</v>
+        <v>25.4721966695821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.47717042770017</v>
+        <v>18.37980477435246</v>
       </c>
       <c r="C20">
-        <v>14.4835517959736</v>
+        <v>10.45516355105311</v>
       </c>
       <c r="D20">
-        <v>8.889140696165557</v>
+        <v>13.54558134983051</v>
       </c>
       <c r="E20">
-        <v>7.83191378559539</v>
+        <v>14.12008930868951</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.33020501151981</v>
+        <v>35.86386834283948</v>
       </c>
       <c r="H20">
-        <v>9.238627340423882</v>
+        <v>16.08960945530876</v>
       </c>
       <c r="I20">
-        <v>13.65068422944148</v>
+        <v>24.97774955117868</v>
       </c>
       <c r="J20">
-        <v>5.539630214586668</v>
+        <v>8.711620850587229</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.023993491547806</v>
+        <v>12.16507144544302</v>
       </c>
       <c r="M20">
-        <v>15.32421541315395</v>
+        <v>17.23004122399241</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.58279311381666</v>
+        <v>25.43800287428145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.03642521209616</v>
+        <v>19.02117783194444</v>
       </c>
       <c r="C21">
-        <v>15.15966734349458</v>
+        <v>10.76504100713134</v>
       </c>
       <c r="D21">
-        <v>9.044210681260344</v>
+        <v>13.52929774402586</v>
       </c>
       <c r="E21">
-        <v>7.694523659084965</v>
+        <v>14.06654767831853</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.86933084135186</v>
+        <v>35.7416404674553</v>
       </c>
       <c r="H21">
-        <v>9.175232484464885</v>
+        <v>16.02368236902496</v>
       </c>
       <c r="I21">
-        <v>13.29847764002974</v>
+        <v>24.81927022714106</v>
       </c>
       <c r="J21">
-        <v>5.544164231125854</v>
+        <v>8.709337740810513</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.211461222665434</v>
+        <v>12.17655615468925</v>
       </c>
       <c r="M21">
-        <v>16.08024682949542</v>
+        <v>17.41001499362535</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.62705843485241</v>
+        <v>25.33004753270319</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.01216270129023</v>
+        <v>19.42912674600127</v>
       </c>
       <c r="C22">
-        <v>15.58698851511099</v>
+        <v>10.96218695762201</v>
       </c>
       <c r="D22">
-        <v>9.150190756403362</v>
+        <v>13.52077640115383</v>
       </c>
       <c r="E22">
-        <v>7.607373669363506</v>
+        <v>14.03297137841146</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.25814551383332</v>
+        <v>35.67229359082819</v>
       </c>
       <c r="H22">
-        <v>9.142406768751957</v>
+        <v>15.98307239706998</v>
       </c>
       <c r="I22">
-        <v>13.08329709164775</v>
+        <v>24.72019549883029</v>
       </c>
       <c r="J22">
-        <v>5.547542162733921</v>
+        <v>8.708037047175653</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.334581174979229</v>
+        <v>12.18522165197498</v>
       </c>
       <c r="M22">
-        <v>16.55902665565258</v>
+        <v>17.52780924896246</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.6760557094761</v>
+        <v>25.26467370933587</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.49533021567804</v>
+        <v>19.21245803285764</v>
       </c>
       <c r="C23">
-        <v>15.36026280272339</v>
+        <v>10.85747281267939</v>
       </c>
       <c r="D23">
-        <v>9.093203681211531</v>
+        <v>13.52513045707789</v>
       </c>
       <c r="E23">
-        <v>7.653643781198939</v>
+        <v>14.05076237110305</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.04724965501959</v>
+        <v>35.70833763783637</v>
       </c>
       <c r="H23">
-        <v>9.159107122043965</v>
+        <v>16.00451994397355</v>
       </c>
       <c r="I23">
-        <v>13.19669315945224</v>
+        <v>24.77266182330343</v>
       </c>
       <c r="J23">
-        <v>5.545700941370423</v>
+        <v>8.708713799820806</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.268822474153929</v>
+        <v>12.18049120046888</v>
       </c>
       <c r="M23">
-        <v>16.30491233607186</v>
+        <v>17.46493293306327</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.64800553570399</v>
+        <v>25.2990898844796</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.45094775902566</v>
+        <v>18.36914034855879</v>
       </c>
       <c r="C24">
-        <v>14.47225814620515</v>
+        <v>10.45001133163671</v>
       </c>
       <c r="D24">
-        <v>8.886684432935905</v>
+        <v>13.54588332605785</v>
       </c>
       <c r="E24">
-        <v>7.834203624072781</v>
+        <v>14.12098839024888</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.32199872667189</v>
+        <v>35.86604313332699</v>
       </c>
       <c r="H24">
-        <v>9.239801825649902</v>
+        <v>16.09072879845467</v>
       </c>
       <c r="I24">
-        <v>13.65667802037348</v>
+        <v>24.98041581675983</v>
       </c>
       <c r="J24">
-        <v>5.539563020852663</v>
+        <v>8.711661413600364</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.020941281869195</v>
+        <v>12.16490343847411</v>
       </c>
       <c r="M24">
-        <v>15.31160386657525</v>
+        <v>17.22710439797556</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.58239418265795</v>
+        <v>25.43985459834678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05703995788764</v>
+        <v>17.41510766942957</v>
       </c>
       <c r="C25">
-        <v>13.45340247359939</v>
+        <v>9.988994766445034</v>
       </c>
       <c r="D25">
-        <v>8.683818307733295</v>
+        <v>13.5773832118366</v>
       </c>
       <c r="E25">
-        <v>8.040175285803244</v>
+        <v>14.20284743709689</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.69116350860131</v>
+        <v>36.08100210072966</v>
       </c>
       <c r="H25">
-        <v>9.360720099724572</v>
+        <v>16.1943453864107</v>
       </c>
       <c r="I25">
-        <v>14.21040276753354</v>
+        <v>25.22384711972403</v>
       </c>
       <c r="J25">
-        <v>5.534684319771085</v>
+        <v>8.715669506290373</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.756946532522973</v>
+        <v>12.1531245025677</v>
       </c>
       <c r="M25">
-        <v>14.17650968605687</v>
+        <v>16.97214517940058</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.59131121041333</v>
+        <v>25.61383729168764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.67922716492379</v>
+        <v>21.12893071781631</v>
       </c>
       <c r="C2">
-        <v>9.632965862483871</v>
+        <v>12.65296328170123</v>
       </c>
       <c r="D2">
-        <v>13.60841902117526</v>
+        <v>8.551445587448976</v>
       </c>
       <c r="E2">
-        <v>14.26841639269425</v>
+        <v>8.201398585973516</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.27739680435264</v>
+        <v>24.34952948873583</v>
       </c>
       <c r="H2">
-        <v>16.27977929898239</v>
+        <v>9.475720885428842</v>
       </c>
       <c r="I2">
-        <v>25.41976137925523</v>
+        <v>14.66133167985464</v>
       </c>
       <c r="J2">
-        <v>8.719340851021675</v>
+        <v>5.532550739994369</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.14883454313697</v>
+        <v>7.566400927035644</v>
       </c>
       <c r="M2">
-        <v>16.78666016794496</v>
+        <v>13.28915304062899</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.76089114848177</v>
+        <v>15.65915541658604</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16251391883767</v>
+        <v>19.71745239791551</v>
       </c>
       <c r="C3">
-        <v>9.382459071776754</v>
+        <v>12.08076700278423</v>
       </c>
       <c r="D3">
-        <v>13.63434335967346</v>
+        <v>8.472216873518395</v>
       </c>
       <c r="E3">
-        <v>14.31617856532036</v>
+        <v>8.31661522400243</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.43403082400665</v>
+        <v>24.18986517575465</v>
       </c>
       <c r="H3">
-        <v>16.34338254337887</v>
+        <v>9.568394455932381</v>
       </c>
       <c r="I3">
-        <v>25.56296289311177</v>
+        <v>14.99135852156357</v>
       </c>
       <c r="J3">
-        <v>8.722282103060175</v>
+        <v>5.53199728314228</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.14868545827624</v>
+        <v>7.440156007336101</v>
       </c>
       <c r="M3">
-        <v>16.66279818476387</v>
+        <v>12.65788380244691</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.87232410170649</v>
+        <v>15.73970010904895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.83747240677303</v>
+        <v>18.79861681937778</v>
       </c>
       <c r="C4">
-        <v>9.224522586750117</v>
+        <v>11.71549587071955</v>
       </c>
       <c r="D4">
-        <v>13.65267248625726</v>
+        <v>8.42867777067641</v>
       </c>
       <c r="E4">
-        <v>14.34715210946347</v>
+        <v>8.390295638011091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.54172794603139</v>
+        <v>24.12539991143846</v>
       </c>
       <c r="H4">
-        <v>16.38524914224095</v>
+        <v>9.632115202419758</v>
       </c>
       <c r="I4">
-        <v>25.65604171636899</v>
+        <v>15.20534909934388</v>
       </c>
       <c r="J4">
-        <v>8.72431288902915</v>
+        <v>5.532092617786541</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.14996206210056</v>
+        <v>7.364238571848833</v>
       </c>
       <c r="M4">
-        <v>16.58780344402676</v>
+        <v>12.2565461224667</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.9465351711187</v>
+        <v>15.80500221521299</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.70324218416679</v>
+        <v>18.41099149746602</v>
       </c>
       <c r="C5">
-        <v>9.159194724790803</v>
+        <v>11.56327198069182</v>
       </c>
       <c r="D5">
-        <v>13.66074795401442</v>
+        <v>8.412208088101018</v>
       </c>
       <c r="E5">
-        <v>14.36018930332244</v>
+        <v>8.421059700697915</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.5884998758572</v>
+        <v>24.10726419823684</v>
       </c>
       <c r="H5">
-        <v>16.40301772752783</v>
+        <v>9.659733214301228</v>
       </c>
       <c r="I5">
-        <v>25.69526882283675</v>
+        <v>15.29531540463104</v>
       </c>
       <c r="J5">
-        <v>8.725197194826812</v>
+        <v>5.532240230576864</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.15082748215871</v>
+        <v>7.333729634662173</v>
       </c>
       <c r="M5">
-        <v>16.55753066780196</v>
+        <v>12.08972771300092</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.97823040405314</v>
+        <v>15.83542222575665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.68085188583087</v>
+        <v>18.34582777947302</v>
       </c>
       <c r="C6">
-        <v>9.148290778528791</v>
+        <v>11.53779591707172</v>
       </c>
       <c r="D6">
-        <v>13.66212548504104</v>
+        <v>8.409549794419275</v>
       </c>
       <c r="E6">
-        <v>14.36237922668747</v>
+        <v>8.426212678181193</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.5964401425693</v>
+        <v>24.10473462350492</v>
       </c>
       <c r="H6">
-        <v>16.40601092602587</v>
+        <v>9.664417112102065</v>
       </c>
       <c r="I6">
-        <v>25.70186080637947</v>
+        <v>15.31041868706044</v>
       </c>
       <c r="J6">
-        <v>8.725347466346946</v>
+        <v>5.532271292206654</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.15099206568351</v>
+        <v>7.328690261521888</v>
       </c>
       <c r="M6">
-        <v>16.55252194733416</v>
+        <v>12.0618361191534</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.98358109452657</v>
+        <v>15.84069840887947</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.83566905853966</v>
+        <v>18.79344267711247</v>
       </c>
       <c r="C7">
-        <v>9.223645374090285</v>
+        <v>11.71345639149647</v>
       </c>
       <c r="D7">
-        <v>13.65277894066718</v>
+        <v>8.428450518334483</v>
       </c>
       <c r="E7">
-        <v>14.34732625109405</v>
+        <v>8.390707541407322</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.54234706717782</v>
+        <v>24.12512281466944</v>
       </c>
       <c r="H7">
-        <v>16.38548591050109</v>
+        <v>9.632481063726264</v>
       </c>
       <c r="I7">
-        <v>25.6565654949609</v>
+        <v>15.20655133990138</v>
       </c>
       <c r="J7">
-        <v>8.724324585060838</v>
+        <v>5.532094169001147</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.14997233430729</v>
+        <v>7.363825350082898</v>
       </c>
       <c r="M7">
-        <v>16.58739397868963</v>
+        <v>12.25430932583215</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.94695674181665</v>
+        <v>15.80539727830617</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.50278361054561</v>
+        <v>20.65304032628601</v>
       </c>
       <c r="C8">
-        <v>9.547487411875315</v>
+        <v>12.45863597129174</v>
       </c>
       <c r="D8">
-        <v>13.61685714478484</v>
+        <v>8.523061374250194</v>
       </c>
       <c r="E8">
-        <v>14.28454346555867</v>
+        <v>8.240515715964095</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.32900481413476</v>
+        <v>24.28733352199021</v>
       </c>
       <c r="H8">
-        <v>16.30112567146091</v>
+        <v>9.506220293820055</v>
       </c>
       <c r="I8">
-        <v>25.46806850605321</v>
+        <v>14.77271009255935</v>
       </c>
       <c r="J8">
-        <v>8.720308450543742</v>
+        <v>5.532269175063659</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.14849990075747</v>
+        <v>7.522556023428108</v>
       </c>
       <c r="M8">
-        <v>16.74374673918236</v>
+        <v>13.07444336047585</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.79810984507776</v>
+        <v>15.6835312524973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.7420131166431</v>
+        <v>23.88892864710733</v>
       </c>
       <c r="C9">
-        <v>10.14700273091788</v>
+        <v>13.80458916663556</v>
       </c>
       <c r="D9">
-        <v>13.56555422846359</v>
+        <v>8.749502882439014</v>
       </c>
       <c r="E9">
-        <v>14.1744531675895</v>
+        <v>7.969303855884213</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.00263978910026</v>
+        <v>24.88401948118623</v>
       </c>
       <c r="H9">
-        <v>16.15802209268181</v>
+        <v>9.315750661610272</v>
       </c>
       <c r="I9">
-        <v>25.13925956538425</v>
+        <v>14.0167869085097</v>
       </c>
       <c r="J9">
-        <v>8.71420800861441</v>
+        <v>5.536098661455569</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.15641482940944</v>
+        <v>7.845342685133756</v>
       </c>
       <c r="M9">
-        <v>17.05774004640709</v>
+        <v>14.56713208196828</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.55228065479209</v>
+        <v>15.57830056922043</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.6017268790866</v>
+        <v>26.02054085903021</v>
       </c>
       <c r="C10">
-        <v>10.56237934576975</v>
+        <v>14.7181625055097</v>
       </c>
       <c r="D10">
-        <v>13.53953358460117</v>
+        <v>8.941170269430666</v>
       </c>
       <c r="E10">
-        <v>14.10144858250993</v>
+        <v>7.784308242019359</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>35.81968877065586</v>
+        <v>25.5066399713538</v>
       </c>
       <c r="H10">
-        <v>16.06649346806607</v>
+        <v>9.215077384304127</v>
       </c>
       <c r="I10">
-        <v>24.92250690396454</v>
+        <v>13.52696163424046</v>
       </c>
       <c r="J10">
-        <v>8.710796503333343</v>
+        <v>5.54108989378405</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.16874071203914</v>
+        <v>8.087996458915256</v>
       </c>
       <c r="M10">
-        <v>17.29157402781728</v>
+        <v>15.58633437715261</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.39990054749265</v>
+        <v>15.59359399930369</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.98026083593876</v>
+        <v>26.93792169681157</v>
       </c>
       <c r="C11">
-        <v>10.74527007167375</v>
+        <v>15.1167007545559</v>
       </c>
       <c r="D11">
-        <v>13.53022924365725</v>
+        <v>9.033892218215946</v>
       </c>
       <c r="E11">
-        <v>14.06993446623241</v>
+        <v>7.7032728699996</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>35.74894775358678</v>
+        <v>25.8322846874308</v>
       </c>
       <c r="H11">
-        <v>16.02781000132628</v>
+        <v>9.17884899774957</v>
       </c>
       <c r="I11">
-        <v>24.82927711691676</v>
+        <v>13.32044988938506</v>
       </c>
       <c r="J11">
-        <v>8.709474503279088</v>
+        <v>5.543846394797499</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.17574418694946</v>
+        <v>8.199276204224063</v>
       </c>
       <c r="M11">
-        <v>17.39834028012105</v>
+        <v>16.03214498162423</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.33674122009476</v>
+        <v>15.62304097441094</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.12168507547964</v>
+        <v>27.27787411293742</v>
       </c>
       <c r="C12">
-        <v>10.81360755341761</v>
+        <v>15.26512276629984</v>
       </c>
       <c r="D12">
-        <v>13.52706980150689</v>
+        <v>9.06979898105107</v>
       </c>
       <c r="E12">
-        <v>14.05824379642459</v>
+        <v>7.673039388070454</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>35.72396643777396</v>
+        <v>25.96184693404743</v>
       </c>
       <c r="H12">
-        <v>16.01358638185908</v>
+        <v>9.166598690833819</v>
       </c>
       <c r="I12">
-        <v>24.79474518477258</v>
+        <v>13.2448026715649</v>
       </c>
       <c r="J12">
-        <v>8.709006752177222</v>
+        <v>5.544961261347579</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.17859533848557</v>
+        <v>8.241519887737219</v>
       </c>
       <c r="M12">
-        <v>17.43880168145564</v>
+        <v>16.19833677999204</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.31371282639365</v>
+        <v>15.63761966997235</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.09131382248775</v>
+        <v>27.20498885209261</v>
       </c>
       <c r="C13">
-        <v>10.79893143912935</v>
+        <v>15.2332690021289</v>
       </c>
       <c r="D13">
-        <v>13.52773406451008</v>
+        <v>9.062030478621267</v>
       </c>
       <c r="E13">
-        <v>14.06075079532981</v>
+        <v>7.679530489200193</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>35.72926607805137</v>
+        <v>25.93366346567125</v>
       </c>
       <c r="H13">
-        <v>16.01663078753873</v>
+        <v>9.169170170885938</v>
       </c>
       <c r="I13">
-        <v>24.80214791642434</v>
+        <v>13.26097741387546</v>
       </c>
       <c r="J13">
-        <v>8.709106032384573</v>
+        <v>5.544717975781742</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.17797246572274</v>
+        <v>8.232417676067188</v>
       </c>
       <c r="M13">
-        <v>17.43008660324348</v>
+        <v>16.16266207286435</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.31863283167329</v>
+        <v>15.63432438094483</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.99193494325502</v>
+        <v>26.96603841991789</v>
       </c>
       <c r="C14">
-        <v>10.75091091406522</v>
+        <v>15.1289617504829</v>
       </c>
       <c r="D14">
-        <v>13.52996202313301</v>
+        <v>9.036830363039822</v>
       </c>
       <c r="E14">
-        <v>14.06896780167097</v>
+        <v>7.70077643917608</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>35.74685625165287</v>
+        <v>25.8428178924368</v>
       </c>
       <c r="H14">
-        <v>16.02663129690739</v>
+        <v>9.177811176948504</v>
       </c>
       <c r="I14">
-        <v>24.82642068036667</v>
+        <v>13.31417385582057</v>
       </c>
       <c r="J14">
-        <v>8.709435363658232</v>
+        <v>5.543936684781242</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.17597477301155</v>
+        <v>8.202749656631694</v>
       </c>
       <c r="M14">
-        <v>17.40166858064252</v>
+        <v>16.04587063395022</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.3348288329099</v>
+        <v>15.62417057492583</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.93080954142727</v>
+        <v>26.8187079386268</v>
       </c>
       <c r="C15">
-        <v>10.72137592261682</v>
+        <v>15.06474442704966</v>
       </c>
       <c r="D15">
-        <v>13.53137409383292</v>
+        <v>9.02149806206967</v>
       </c>
       <c r="E15">
-        <v>14.07403258165799</v>
+        <v>7.713849316395842</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>35.75786636668352</v>
+        <v>25.78798989212817</v>
       </c>
       <c r="H15">
-        <v>16.03281224983533</v>
+        <v>9.183298129336837</v>
       </c>
       <c r="I15">
-        <v>24.84138899927495</v>
+        <v>13.34709754829413</v>
       </c>
       <c r="J15">
-        <v>8.709641362220568</v>
+        <v>5.543467409143166</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.17477700330838</v>
+        <v>8.184590051690503</v>
       </c>
       <c r="M15">
-        <v>17.38426505225497</v>
+        <v>15.97398879626218</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.34486517113313</v>
+        <v>15.61840317613928</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.57672621821951</v>
+        <v>25.95954231594041</v>
       </c>
       <c r="C16">
-        <v>10.55030082329704</v>
+        <v>14.69176995654104</v>
       </c>
       <c r="D16">
-        <v>13.54019258658154</v>
+        <v>8.935221967270056</v>
       </c>
       <c r="E16">
-        <v>14.10354216014252</v>
+        <v>7.789667210298812</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35.82456408123161</v>
+        <v>25.48622517879434</v>
       </c>
       <c r="H16">
-        <v>16.06908097638315</v>
+        <v>9.217645348201305</v>
       </c>
       <c r="I16">
-        <v>24.92870775943597</v>
+        <v>13.54080308365465</v>
       </c>
       <c r="J16">
-        <v>8.710887508494002</v>
+        <v>5.540919625395676</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.16831097309834</v>
+        <v>8.080739965751746</v>
       </c>
       <c r="M16">
-        <v>17.28460236489736</v>
+        <v>15.55683505519275</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.40415235254508</v>
+        <v>15.59213874383134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.35620765435367</v>
+        <v>25.41913357404363</v>
       </c>
       <c r="C17">
-        <v>10.44376325726345</v>
+        <v>14.45855991657276</v>
       </c>
       <c r="D17">
-        <v>13.54625094449733</v>
+        <v>8.883711183050742</v>
       </c>
       <c r="E17">
-        <v>14.12207912082511</v>
+        <v>7.83698078465342</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35.86868693092529</v>
+        <v>25.31208064764034</v>
       </c>
       <c r="H17">
-        <v>16.09208728684326</v>
+        <v>9.241231375875143</v>
       </c>
       <c r="I17">
-        <v>24.98365064666815</v>
+        <v>13.6639525631081</v>
       </c>
       <c r="J17">
-        <v>8.711710722609203</v>
+        <v>5.539481900614482</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.16470073093027</v>
+        <v>8.017242789104792</v>
       </c>
       <c r="M17">
-        <v>17.22354541921776</v>
+        <v>15.29630793299817</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.44210276342808</v>
+        <v>15.58192517230185</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.22819548170234</v>
+        <v>25.10337704374896</v>
       </c>
       <c r="C18">
-        <v>10.38191720511101</v>
+        <v>14.32282055705618</v>
       </c>
       <c r="D18">
-        <v>13.54997395387581</v>
+        <v>8.854604310557654</v>
       </c>
       <c r="E18">
-        <v>14.13290077909214</v>
+        <v>7.864487660381451</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>35.89523966187879</v>
+        <v>25.21590242511556</v>
       </c>
       <c r="H18">
-        <v>16.10559787495026</v>
+        <v>9.255692216157943</v>
       </c>
       <c r="I18">
-        <v>25.01575800320142</v>
+        <v>13.73630612061267</v>
       </c>
       <c r="J18">
-        <v>8.712205865769224</v>
+        <v>5.538700625128117</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.16275575619985</v>
+        <v>7.980806518717859</v>
       </c>
       <c r="M18">
-        <v>17.18846567849853</v>
+        <v>15.14478406436499</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.46451038667673</v>
+        <v>15.57815597855253</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.18465448061897</v>
+        <v>24.99561853853898</v>
       </c>
       <c r="C19">
-        <v>10.36088106500389</v>
+        <v>14.27658774473021</v>
       </c>
       <c r="D19">
-        <v>13.55127545304402</v>
+        <v>8.844838660675105</v>
       </c>
       <c r="E19">
-        <v>14.13659225929468</v>
+        <v>7.873851291186688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>35.90443130781518</v>
+        <v>25.18401753639628</v>
       </c>
       <c r="H19">
-        <v>16.1102200607524</v>
+        <v>9.260739341994721</v>
       </c>
       <c r="I19">
-        <v>25.02671586176311</v>
+        <v>13.76105917494256</v>
       </c>
       <c r="J19">
-        <v>8.712377237597924</v>
+        <v>5.538443908244496</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.16211986399696</v>
+        <v>7.968485298527623</v>
       </c>
       <c r="M19">
-        <v>17.17659568282218</v>
+        <v>15.09319510249173</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.4721966695821</v>
+        <v>15.57723545260978</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.37980477435246</v>
+        <v>25.47717042770016</v>
       </c>
       <c r="C20">
-        <v>10.45516355105311</v>
+        <v>14.48355179597362</v>
       </c>
       <c r="D20">
-        <v>13.54558134983051</v>
+        <v>8.889140696165503</v>
       </c>
       <c r="E20">
-        <v>14.12008930868951</v>
+        <v>7.831913785595384</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>35.86386834283948</v>
+        <v>25.33020501151986</v>
       </c>
       <c r="H20">
-        <v>16.08960945530876</v>
+        <v>9.238627340423974</v>
       </c>
       <c r="I20">
-        <v>24.97774955117868</v>
+        <v>13.65068422944152</v>
       </c>
       <c r="J20">
-        <v>8.711620850587229</v>
+        <v>5.539630214586735</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.16507144544302</v>
+        <v>8.023993491547781</v>
       </c>
       <c r="M20">
-        <v>17.23004122399241</v>
+        <v>15.32421541315395</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.43800287428145</v>
+        <v>15.58279311381669</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.02117783194444</v>
+        <v>27.03642521209617</v>
       </c>
       <c r="C21">
-        <v>10.76504100713134</v>
+        <v>15.1596673434945</v>
       </c>
       <c r="D21">
-        <v>13.52929774402586</v>
+        <v>9.044210681260385</v>
       </c>
       <c r="E21">
-        <v>14.06654767831853</v>
+        <v>7.69452365908477</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>35.7416404674553</v>
+        <v>25.86933084135174</v>
       </c>
       <c r="H21">
-        <v>16.02368236902496</v>
+        <v>9.175232484464873</v>
       </c>
       <c r="I21">
-        <v>24.81927022714106</v>
+        <v>13.29847764002962</v>
       </c>
       <c r="J21">
-        <v>8.709337740810513</v>
+        <v>5.544164231125787</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.17655615468925</v>
+        <v>8.211461222665434</v>
       </c>
       <c r="M21">
-        <v>17.41001499362535</v>
+        <v>16.0802468294954</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.33004753270319</v>
+        <v>15.62705843485232</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.42912674600127</v>
+        <v>28.0121627012902</v>
       </c>
       <c r="C22">
-        <v>10.96218695762201</v>
+        <v>15.58698851511104</v>
       </c>
       <c r="D22">
-        <v>13.52077640115383</v>
+        <v>9.15019075640342</v>
       </c>
       <c r="E22">
-        <v>14.03297137841146</v>
+        <v>7.607373669363512</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>35.67229359082819</v>
+        <v>26.25814551383343</v>
       </c>
       <c r="H22">
-        <v>15.98307239706998</v>
+        <v>9.142406768751982</v>
       </c>
       <c r="I22">
-        <v>24.72019549883029</v>
+        <v>13.08329709164786</v>
       </c>
       <c r="J22">
-        <v>8.708037047175653</v>
+        <v>5.54754216273392</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.18522165197498</v>
+        <v>8.334581174979217</v>
       </c>
       <c r="M22">
-        <v>17.52780924896246</v>
+        <v>16.55902665565258</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.26467370933587</v>
+        <v>15.6760557094762</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.21245803285764</v>
+        <v>27.49533021567811</v>
       </c>
       <c r="C23">
-        <v>10.85747281267939</v>
+        <v>15.36026280272313</v>
       </c>
       <c r="D23">
-        <v>13.52513045707789</v>
+        <v>9.093203681211463</v>
       </c>
       <c r="E23">
-        <v>14.05076237110305</v>
+        <v>7.653643781198875</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>35.70833763783637</v>
+        <v>26.04724965501969</v>
       </c>
       <c r="H23">
-        <v>16.00451994397355</v>
+        <v>9.159107122043981</v>
       </c>
       <c r="I23">
-        <v>24.77266182330343</v>
+        <v>13.19669315945216</v>
       </c>
       <c r="J23">
-        <v>8.708713799820806</v>
+        <v>5.545700941370487</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.18049120046888</v>
+        <v>8.268822474153968</v>
       </c>
       <c r="M23">
-        <v>17.46493293306327</v>
+        <v>16.30491233607185</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.2990898844796</v>
+        <v>15.648005535704</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.36914034855879</v>
+        <v>25.45094775902567</v>
       </c>
       <c r="C24">
-        <v>10.45001133163671</v>
+        <v>14.47225814620499</v>
       </c>
       <c r="D24">
-        <v>13.54588332605785</v>
+        <v>8.886684432935898</v>
       </c>
       <c r="E24">
-        <v>14.12098839024888</v>
+        <v>7.834203624072847</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>35.86604313332699</v>
+        <v>25.32199872667203</v>
       </c>
       <c r="H24">
-        <v>16.09072879845467</v>
+        <v>9.239801825649907</v>
       </c>
       <c r="I24">
-        <v>24.98041581675983</v>
+        <v>13.6566780203735</v>
       </c>
       <c r="J24">
-        <v>8.711661413600364</v>
+        <v>5.539563020852728</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.16490343847411</v>
+        <v>8.020941281869289</v>
       </c>
       <c r="M24">
-        <v>17.22710439797556</v>
+        <v>15.31160386657528</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.43985459834678</v>
+        <v>15.58239418265803</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.41510766942957</v>
+        <v>23.05703995788756</v>
       </c>
       <c r="C25">
-        <v>9.988994766445034</v>
+        <v>13.45340247359944</v>
       </c>
       <c r="D25">
-        <v>13.5773832118366</v>
+        <v>8.683818307733421</v>
       </c>
       <c r="E25">
-        <v>14.20284743709689</v>
+        <v>8.040175285803503</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36.08100210072966</v>
+        <v>24.69116350860158</v>
       </c>
       <c r="H25">
-        <v>16.1943453864107</v>
+        <v>9.360720099724684</v>
       </c>
       <c r="I25">
-        <v>25.22384711972403</v>
+        <v>14.21040276753376</v>
       </c>
       <c r="J25">
-        <v>8.715669506290373</v>
+        <v>5.534684319771182</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.1531245025677</v>
+        <v>7.756946532523059</v>
       </c>
       <c r="M25">
-        <v>16.97214517940058</v>
+        <v>14.17650968605695</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.61383729168764</v>
+        <v>15.59131121041354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.12893071781631</v>
+        <v>21.24327697952329</v>
       </c>
       <c r="C2">
-        <v>12.65296328170123</v>
+        <v>18.66889287771298</v>
       </c>
       <c r="D2">
-        <v>8.551445587448976</v>
+        <v>7.180765245713714</v>
       </c>
       <c r="E2">
-        <v>8.201398585973516</v>
+        <v>13.20886591021884</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.34952948873583</v>
+        <v>43.19170773197187</v>
       </c>
       <c r="H2">
-        <v>9.475720885428842</v>
+        <v>2.283017150407595</v>
       </c>
       <c r="I2">
-        <v>14.66133167985464</v>
+        <v>3.330144033585932</v>
       </c>
       <c r="J2">
-        <v>5.532550739994369</v>
+        <v>12.6665272771457</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.23966507007847</v>
       </c>
       <c r="L2">
-        <v>7.566400927035644</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.28915304062899</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.65915541658604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.63235587405284</v>
+      </c>
+      <c r="P2">
+        <v>12.19900331747731</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.71745239791551</v>
+        <v>19.80522032458903</v>
       </c>
       <c r="C3">
-        <v>12.08076700278423</v>
+        <v>17.40220246947878</v>
       </c>
       <c r="D3">
-        <v>8.472216873518395</v>
+        <v>6.679726295906143</v>
       </c>
       <c r="E3">
-        <v>8.31661522400243</v>
+        <v>12.48051639714327</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.18986517575465</v>
+        <v>40.91541003573828</v>
       </c>
       <c r="H3">
-        <v>9.568394455932381</v>
+        <v>2.018041780917234</v>
       </c>
       <c r="I3">
-        <v>14.99135852156357</v>
+        <v>3.092852160782517</v>
       </c>
       <c r="J3">
-        <v>5.53199728314228</v>
+        <v>12.29935127912833</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.80915046999215</v>
       </c>
       <c r="L3">
-        <v>7.440156007336101</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.65788380244691</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.73970010904895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17.52502498068304</v>
+      </c>
+      <c r="P3">
+        <v>12.35946639315689</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.79861681937778</v>
+        <v>18.8671760205896</v>
       </c>
       <c r="C4">
-        <v>11.71549587071955</v>
+        <v>16.58422172578044</v>
       </c>
       <c r="D4">
-        <v>8.42867777067641</v>
+        <v>6.35529681751992</v>
       </c>
       <c r="E4">
-        <v>8.390295638011091</v>
+        <v>12.01311320862592</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.12539991143846</v>
+        <v>39.46882611197679</v>
       </c>
       <c r="H4">
-        <v>9.632115202419758</v>
+        <v>1.850182986989298</v>
       </c>
       <c r="I4">
-        <v>15.20534909934388</v>
+        <v>2.943379179873934</v>
       </c>
       <c r="J4">
-        <v>5.532092617786541</v>
+        <v>12.07276311312884</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.54415990332258</v>
       </c>
       <c r="L4">
-        <v>7.364238571848833</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.2565461224667</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.80500221521299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.81062056603998</v>
+      </c>
+      <c r="P4">
+        <v>12.4585356218769</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.41099149746602</v>
+        <v>18.46339971551794</v>
       </c>
       <c r="C5">
-        <v>11.56327198069182</v>
+        <v>16.24713412636988</v>
       </c>
       <c r="D5">
-        <v>8.412208088101018</v>
+        <v>6.221735741126196</v>
       </c>
       <c r="E5">
-        <v>8.421059700697915</v>
+        <v>11.81788885605599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.10726419823684</v>
+        <v>38.84152019973818</v>
       </c>
       <c r="H5">
-        <v>9.659733214301228</v>
+        <v>1.780161309211687</v>
       </c>
       <c r="I5">
-        <v>15.29531540463104</v>
+        <v>2.881721194567854</v>
       </c>
       <c r="J5">
-        <v>5.532240230576864</v>
+        <v>11.97493853742697</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.4250753965713</v>
       </c>
       <c r="L5">
-        <v>7.333729634662173</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.08972771300092</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.83542222575665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>16.50967534220827</v>
+      </c>
+      <c r="P5">
+        <v>12.49768194558375</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.34582777947302</v>
+        <v>18.38625421089856</v>
       </c>
       <c r="C6">
-        <v>11.53779591707172</v>
+        <v>16.1984179987614</v>
       </c>
       <c r="D6">
-        <v>8.409549794419275</v>
+        <v>6.202241207496204</v>
       </c>
       <c r="E6">
-        <v>8.426212678181193</v>
+        <v>11.78555335487353</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.10473462350492</v>
+        <v>38.70478267821173</v>
       </c>
       <c r="H6">
-        <v>9.664417112102065</v>
+        <v>1.768102187890087</v>
       </c>
       <c r="I6">
-        <v>15.31041868706044</v>
+        <v>2.871896329839557</v>
       </c>
       <c r="J6">
-        <v>5.532271292206654</v>
+        <v>11.95221650650583</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.39183914212091</v>
       </c>
       <c r="L6">
-        <v>7.328690261521888</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.0618361191534</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.84069840887947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>16.45766834173651</v>
+      </c>
+      <c r="P6">
+        <v>12.5025099097504</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.79344267711247</v>
+        <v>18.83712016277215</v>
       </c>
       <c r="C7">
-        <v>11.71345639149647</v>
+        <v>16.60067986454989</v>
       </c>
       <c r="D7">
-        <v>8.428450518334483</v>
+        <v>6.353355735344452</v>
       </c>
       <c r="E7">
-        <v>8.390707541407322</v>
+        <v>12.01153478252014</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.12512281466944</v>
+        <v>39.37492120806406</v>
       </c>
       <c r="H7">
-        <v>9.632481063726264</v>
+        <v>1.848296085054386</v>
       </c>
       <c r="I7">
-        <v>15.20655133990138</v>
+        <v>2.943458774257366</v>
       </c>
       <c r="J7">
-        <v>5.532094169001147</v>
+        <v>12.05394016144294</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.50605570578411</v>
       </c>
       <c r="L7">
-        <v>7.363825350082898</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.25430932583215</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.80539727830617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.8025258564478</v>
+      </c>
+      <c r="P7">
+        <v>12.45451901915943</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65304032628601</v>
+        <v>20.72867334090631</v>
       </c>
       <c r="C8">
-        <v>12.45863597129174</v>
+        <v>18.26591332462496</v>
       </c>
       <c r="D8">
-        <v>8.523061374250194</v>
+        <v>7.011300914703429</v>
       </c>
       <c r="E8">
-        <v>8.240515715964095</v>
+        <v>12.96319079483165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.28733352199021</v>
+        <v>42.31115562846205</v>
       </c>
       <c r="H8">
-        <v>9.506220293820055</v>
+        <v>2.191493882036197</v>
       </c>
       <c r="I8">
-        <v>14.77271009255935</v>
+        <v>3.249634113499581</v>
       </c>
       <c r="J8">
-        <v>5.532269175063659</v>
+        <v>12.51782695929088</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.04439055308014</v>
       </c>
       <c r="L8">
-        <v>7.522556023428108</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.07444336047585</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.6835312524973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>18.25272070565365</v>
+      </c>
+      <c r="P8">
+        <v>12.24844680972303</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.88892864710733</v>
+        <v>24.04476699838803</v>
       </c>
       <c r="C9">
-        <v>13.80458916663556</v>
+        <v>21.18301935997661</v>
       </c>
       <c r="D9">
-        <v>8.749502882439014</v>
+        <v>8.170438389773103</v>
       </c>
       <c r="E9">
-        <v>7.969303855884213</v>
+        <v>14.66786292790477</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.88401948118623</v>
+        <v>47.80210059639279</v>
       </c>
       <c r="H9">
-        <v>9.315750661610272</v>
+        <v>2.826697761268031</v>
       </c>
       <c r="I9">
-        <v>14.0167869085097</v>
+        <v>3.821401686448327</v>
       </c>
       <c r="J9">
-        <v>5.536098661455569</v>
+        <v>13.44495263100086</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.15511665490952</v>
       </c>
       <c r="L9">
-        <v>7.845342685133756</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.56713208196828</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.57830056922043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.82664914803825</v>
+      </c>
+      <c r="P9">
+        <v>11.85539201310671</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.02054085903021</v>
+        <v>26.18821851153442</v>
       </c>
       <c r="C10">
-        <v>14.7181625055097</v>
+        <v>23.08771380692108</v>
       </c>
       <c r="D10">
-        <v>8.941170269430666</v>
+        <v>8.943614860296002</v>
       </c>
       <c r="E10">
-        <v>7.784308242019359</v>
+        <v>15.36697155522715</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.5066399713538</v>
+        <v>51.18973545107303</v>
       </c>
       <c r="H10">
-        <v>9.215077384304127</v>
+        <v>3.244570426799963</v>
       </c>
       <c r="I10">
-        <v>13.52696163424046</v>
+        <v>4.218128868389346</v>
       </c>
       <c r="J10">
-        <v>5.54108989378405</v>
+        <v>14.02969236202026</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.81981115350407</v>
       </c>
       <c r="L10">
-        <v>8.087996458915256</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.58633437715261</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.59359399930369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22.24385367415171</v>
+      </c>
+      <c r="P10">
+        <v>11.54726931899997</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.93792169681157</v>
+        <v>26.86168789756241</v>
       </c>
       <c r="C11">
-        <v>15.1167007545559</v>
+        <v>23.42817722890343</v>
       </c>
       <c r="D11">
-        <v>9.033892218215946</v>
+        <v>9.270006139722247</v>
       </c>
       <c r="E11">
-        <v>7.7032728699996</v>
+        <v>12.14462720011801</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.8322846874308</v>
+        <v>49.59966390842293</v>
       </c>
       <c r="H11">
-        <v>9.17884899774957</v>
+        <v>3.798796184503267</v>
       </c>
       <c r="I11">
-        <v>13.32044988938506</v>
+        <v>4.327898476141833</v>
       </c>
       <c r="J11">
-        <v>5.543846394797499</v>
+        <v>13.60191993953231</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.9739261531161</v>
       </c>
       <c r="L11">
-        <v>8.199276204224063</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>16.03214498162423</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.62304097441094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>20.26617177306839</v>
+      </c>
+      <c r="P11">
+        <v>11.27945928182879</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.27787411293742</v>
+        <v>27.02509725986262</v>
       </c>
       <c r="C12">
-        <v>15.26512276629984</v>
+        <v>23.30428026880731</v>
       </c>
       <c r="D12">
-        <v>9.06979898105107</v>
+        <v>9.387991345878518</v>
       </c>
       <c r="E12">
-        <v>7.673039388070454</v>
+        <v>10.13457417869061</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.96184693404743</v>
+        <v>47.63384975383737</v>
       </c>
       <c r="H12">
-        <v>9.166598690833819</v>
+        <v>4.784823083006555</v>
       </c>
       <c r="I12">
-        <v>13.2448026715649</v>
+        <v>4.343026754095455</v>
       </c>
       <c r="J12">
-        <v>5.544961261347579</v>
+        <v>13.13228690137636</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.15884036061463</v>
       </c>
       <c r="L12">
-        <v>8.241519887737219</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.19833677999204</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.63761966997235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.2891875647154</v>
+      </c>
+      <c r="P12">
+        <v>11.16614622379503</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.20498885209261</v>
+        <v>26.78325501511404</v>
       </c>
       <c r="C13">
-        <v>15.2332690021289</v>
+        <v>22.83525576747778</v>
       </c>
       <c r="D13">
-        <v>9.062030478621267</v>
+        <v>9.356012248274299</v>
       </c>
       <c r="E13">
-        <v>7.679530489200193</v>
+        <v>9.406413580692494</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.93366346567125</v>
+        <v>45.08695168984689</v>
       </c>
       <c r="H13">
-        <v>9.169170170885938</v>
+        <v>5.931211953915013</v>
       </c>
       <c r="I13">
-        <v>13.26097741387546</v>
+        <v>4.28709156832579</v>
       </c>
       <c r="J13">
-        <v>5.544717975781742</v>
+        <v>12.56791918397527</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.25366046403964</v>
       </c>
       <c r="L13">
-        <v>8.232417676067188</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16.16266207286435</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.63432438094483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.13074419519508</v>
+      </c>
+      <c r="P13">
+        <v>11.15620203723563</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.96603841991789</v>
+        <v>26.42243918051443</v>
       </c>
       <c r="C14">
-        <v>15.1289617504829</v>
+        <v>22.35001589110195</v>
       </c>
       <c r="D14">
-        <v>9.036830363039822</v>
+        <v>9.265596209977449</v>
       </c>
       <c r="E14">
-        <v>7.70077643917608</v>
+        <v>9.829188511190729</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.8428178924368</v>
+        <v>42.98598416740339</v>
       </c>
       <c r="H14">
-        <v>9.177811176948504</v>
+        <v>6.793140260808679</v>
       </c>
       <c r="I14">
-        <v>13.31417385582057</v>
+        <v>4.216895890588308</v>
       </c>
       <c r="J14">
-        <v>5.543936684781242</v>
+        <v>12.12146582786244</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.56640184260846</v>
       </c>
       <c r="L14">
-        <v>8.202749656631694</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>16.04587063395022</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.62417057492583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.51007020947374</v>
+      </c>
+      <c r="P14">
+        <v>11.19945666047053</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.8187079386268</v>
+        <v>26.23865651932029</v>
       </c>
       <c r="C15">
-        <v>15.06474442704966</v>
+        <v>22.16168275004947</v>
       </c>
       <c r="D15">
-        <v>9.02149806206967</v>
+        <v>9.2111437201747</v>
       </c>
       <c r="E15">
-        <v>7.713849316395842</v>
+        <v>10.02675302000005</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.78798989212817</v>
+        <v>42.3172876981086</v>
       </c>
       <c r="H15">
-        <v>9.183298129336837</v>
+        <v>6.989468973894724</v>
       </c>
       <c r="I15">
-        <v>13.34709754829413</v>
+        <v>4.18431405472298</v>
       </c>
       <c r="J15">
-        <v>5.543467409143166</v>
+        <v>11.9871566464786</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.3687291285272</v>
       </c>
       <c r="L15">
-        <v>8.184590051690503</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.97398879626218</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.61840317613928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.07143811207054</v>
+      </c>
+      <c r="P15">
+        <v>11.22620302906115</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95954231594041</v>
+        <v>25.38338337764184</v>
       </c>
       <c r="C16">
-        <v>14.69176995654104</v>
+        <v>21.4482393493285</v>
       </c>
       <c r="D16">
-        <v>8.935221967270056</v>
+        <v>8.898974637219284</v>
       </c>
       <c r="E16">
-        <v>7.789667210298812</v>
+        <v>9.737774324592969</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.48622517879434</v>
+        <v>41.1704311612855</v>
       </c>
       <c r="H16">
-        <v>9.217645348201305</v>
+        <v>6.704367174319128</v>
       </c>
       <c r="I16">
-        <v>13.54080308365465</v>
+        <v>4.02819775215984</v>
       </c>
       <c r="J16">
-        <v>5.540919625395676</v>
+        <v>11.81802392274585</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.21737308255741</v>
       </c>
       <c r="L16">
-        <v>8.080739965751746</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.55683505519275</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.59213874383134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.75963226135811</v>
+      </c>
+      <c r="P16">
+        <v>11.35004862037427</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.41913357404363</v>
+        <v>24.9130417713149</v>
       </c>
       <c r="C17">
-        <v>14.45855991657276</v>
+        <v>21.16204561750857</v>
       </c>
       <c r="D17">
-        <v>8.883711183050742</v>
+        <v>8.704851625932911</v>
       </c>
       <c r="E17">
-        <v>7.83698078465342</v>
+        <v>9.117253106923103</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.31208064764034</v>
+        <v>41.45536260049851</v>
       </c>
       <c r="H17">
-        <v>9.241231375875143</v>
+        <v>5.974816441829009</v>
       </c>
       <c r="I17">
-        <v>13.6639525631081</v>
+        <v>3.945144160778284</v>
       </c>
       <c r="J17">
-        <v>5.539481900614482</v>
+        <v>11.93234183205929</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.47360144030852</v>
       </c>
       <c r="L17">
-        <v>8.017242789104792</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>15.29630793299817</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.58192517230185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.42021932980947</v>
+      </c>
+      <c r="P17">
+        <v>11.42098343008086</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10337704374896</v>
+        <v>24.75129370565523</v>
       </c>
       <c r="C18">
-        <v>14.32282055705618</v>
+        <v>21.2094479627093</v>
       </c>
       <c r="D18">
-        <v>8.854604310557654</v>
+        <v>8.594267816549744</v>
       </c>
       <c r="E18">
-        <v>7.864487660381451</v>
+        <v>9.019414502289031</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.21590242511556</v>
+        <v>43.0693326732027</v>
       </c>
       <c r="H18">
-        <v>9.255692216157943</v>
+        <v>4.841178305174111</v>
       </c>
       <c r="I18">
-        <v>13.73630612061267</v>
+        <v>3.917328383769412</v>
       </c>
       <c r="J18">
-        <v>5.538700625128117</v>
+        <v>12.31359458527728</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.13415287924771</v>
       </c>
       <c r="L18">
-        <v>7.980806518717859</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>15.14478406436499</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.57815597855253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.0038686810549</v>
+      </c>
+      <c r="P18">
+        <v>11.47502951388236</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.99561853853898</v>
+        <v>24.81786517344127</v>
       </c>
       <c r="C19">
-        <v>14.27658774473021</v>
+        <v>21.55525515986428</v>
       </c>
       <c r="D19">
-        <v>8.844838660675105</v>
+        <v>8.56056248319145</v>
       </c>
       <c r="E19">
-        <v>7.873851291186688</v>
+        <v>10.59405336169528</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.18401753639628</v>
+        <v>45.46825045042275</v>
       </c>
       <c r="H19">
-        <v>9.260739341994721</v>
+        <v>3.679012581372283</v>
       </c>
       <c r="I19">
-        <v>13.76105917494256</v>
+        <v>3.944292526583919</v>
       </c>
       <c r="J19">
-        <v>5.538443908244496</v>
+        <v>12.84722761659443</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.00836551693841</v>
       </c>
       <c r="L19">
-        <v>7.968485298527623</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>15.09319510249173</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.57723545260978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.18612925949021</v>
+      </c>
+      <c r="P19">
+        <v>11.53865594549269</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.47717042770016</v>
+        <v>25.58157701338048</v>
       </c>
       <c r="C20">
-        <v>14.48355179597362</v>
+        <v>22.64613583638618</v>
       </c>
       <c r="D20">
-        <v>8.889140696165503</v>
+        <v>8.745186787330386</v>
       </c>
       <c r="E20">
-        <v>7.831913785595384</v>
+        <v>15.16679603716574</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.33020501151986</v>
+        <v>50.08600939634992</v>
       </c>
       <c r="H20">
-        <v>9.238627340423974</v>
+        <v>3.131274290740082</v>
       </c>
       <c r="I20">
-        <v>13.65068422944152</v>
+        <v>4.117030706768421</v>
       </c>
       <c r="J20">
-        <v>5.539630214586735</v>
+        <v>13.82532440313392</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.53747528207299</v>
       </c>
       <c r="L20">
-        <v>8.023993491547781</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>15.32421541315395</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.58279311381669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.85669868482904</v>
+      </c>
+      <c r="P20">
+        <v>11.61511525214353</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.03642521209617</v>
+        <v>27.20293170136948</v>
       </c>
       <c r="C21">
-        <v>15.1596673434945</v>
+        <v>24.13091346791487</v>
       </c>
       <c r="D21">
-        <v>9.044210681260385</v>
+        <v>9.316540654507021</v>
       </c>
       <c r="E21">
-        <v>7.69452365908477</v>
+        <v>16.3871098247174</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.86933084135174</v>
+        <v>53.19627347857237</v>
       </c>
       <c r="H21">
-        <v>9.175232484464873</v>
+        <v>3.488739073921818</v>
       </c>
       <c r="I21">
-        <v>13.29847764002962</v>
+        <v>4.429708402718522</v>
       </c>
       <c r="J21">
-        <v>5.544164231125787</v>
+        <v>14.40136391379815</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.26629503037298</v>
       </c>
       <c r="L21">
-        <v>8.211461222665434</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>16.0802468294954</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.62705843485232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.36325231729129</v>
+      </c>
+      <c r="P21">
+        <v>11.4088933658896</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.0121627012902</v>
+        <v>28.22677089216447</v>
       </c>
       <c r="C22">
-        <v>15.58698851511104</v>
+        <v>25.0198358669481</v>
       </c>
       <c r="D22">
-        <v>9.15019075640342</v>
+        <v>9.676447870481908</v>
       </c>
       <c r="E22">
-        <v>7.607373669363512</v>
+        <v>16.93004480942911</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.25814551383343</v>
+        <v>55.08089538590563</v>
       </c>
       <c r="H22">
-        <v>9.142406768751982</v>
+        <v>3.705931999244055</v>
       </c>
       <c r="I22">
-        <v>13.08329709164786</v>
+        <v>4.627006721430174</v>
       </c>
       <c r="J22">
-        <v>5.54754216273392</v>
+        <v>14.75405917562945</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.71581838351416</v>
       </c>
       <c r="L22">
-        <v>8.334581174979217</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.55902665565258</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.6760557094762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>24.16487026099476</v>
+      </c>
+      <c r="P22">
+        <v>11.26980484481389</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.49533021567811</v>
+        <v>27.70557345089772</v>
       </c>
       <c r="C23">
-        <v>15.36026280272313</v>
+        <v>24.53080278624236</v>
       </c>
       <c r="D23">
-        <v>9.093203681211463</v>
+        <v>9.485731465139828</v>
       </c>
       <c r="E23">
-        <v>7.653643781198875</v>
+        <v>16.64094814801024</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.04724965501969</v>
+        <v>54.15590460705687</v>
       </c>
       <c r="H23">
-        <v>9.159107122043981</v>
+        <v>3.591276386032229</v>
       </c>
       <c r="I23">
-        <v>13.19669315945216</v>
+        <v>4.520981391789132</v>
       </c>
       <c r="J23">
-        <v>5.545700941370487</v>
+        <v>14.58353453601053</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.51354293796319</v>
       </c>
       <c r="L23">
-        <v>8.268822474153968</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.30491233607185</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.648005535704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.74352331125225</v>
+      </c>
+      <c r="P23">
+        <v>11.3487439954245</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.45094775902567</v>
+        <v>25.60952708228141</v>
       </c>
       <c r="C24">
-        <v>14.47225814620499</v>
+        <v>22.64105456925528</v>
       </c>
       <c r="D24">
-        <v>8.886684432935898</v>
+        <v>8.736703771575524</v>
       </c>
       <c r="E24">
-        <v>7.834203624072847</v>
+        <v>15.51404081660445</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.32199872667203</v>
+        <v>50.43730981900246</v>
       </c>
       <c r="H24">
-        <v>9.239801825649907</v>
+        <v>3.149186153895899</v>
       </c>
       <c r="I24">
-        <v>13.6566780203735</v>
+        <v>4.116547360003654</v>
       </c>
       <c r="J24">
-        <v>5.539563020852728</v>
+        <v>13.90544808011009</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.68630505600845</v>
       </c>
       <c r="L24">
-        <v>8.020941281869289</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15.31160386657528</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.58239418265803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>22.08023525836383</v>
+      </c>
+      <c r="P24">
+        <v>11.63973106148859</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05703995788756</v>
+        <v>23.15614515024728</v>
       </c>
       <c r="C25">
-        <v>13.45340247359944</v>
+        <v>20.45822146805705</v>
       </c>
       <c r="D25">
-        <v>8.683818307733421</v>
+        <v>7.870396582504953</v>
       </c>
       <c r="E25">
-        <v>8.040175285803503</v>
+        <v>14.2252541108169</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.69116350860158</v>
+        <v>46.22940797290423</v>
       </c>
       <c r="H25">
-        <v>9.360720099724684</v>
+        <v>2.657263489864477</v>
       </c>
       <c r="I25">
-        <v>14.21040276753376</v>
+        <v>3.670693376137182</v>
       </c>
       <c r="J25">
-        <v>5.534684319771182</v>
+        <v>13.16683927790171</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.79422156510636</v>
       </c>
       <c r="L25">
-        <v>7.756946532523059</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.17650968605695</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.59131121041354</v>
+        <v>20.15389380990687</v>
+      </c>
+      <c r="P25">
+        <v>11.95399068989286</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24327697952329</v>
+        <v>20.37835703489841</v>
       </c>
       <c r="C2">
-        <v>18.66889287771298</v>
+        <v>19.30244469492909</v>
       </c>
       <c r="D2">
-        <v>7.180765245713714</v>
+        <v>7.174004542659366</v>
       </c>
       <c r="E2">
-        <v>13.20886591021884</v>
+        <v>13.21133879123331</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.19170773197187</v>
+        <v>39.6777482745967</v>
       </c>
       <c r="H2">
-        <v>2.283017150407595</v>
+        <v>2.239664235987799</v>
       </c>
       <c r="I2">
-        <v>3.330144033585932</v>
+        <v>3.279684601822782</v>
       </c>
       <c r="J2">
-        <v>12.6665272771457</v>
+        <v>12.52890069853165</v>
       </c>
       <c r="K2">
-        <v>18.23966507007847</v>
+        <v>16.85187705236041</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.61577730311081</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.63086204935689</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.63235587405284</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.19900331747731</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.49138210470572</v>
+      </c>
+      <c r="R2">
+        <v>12.04770983355938</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80522032458903</v>
+        <v>19.05154392013728</v>
       </c>
       <c r="C3">
-        <v>17.40220246947878</v>
+        <v>17.96136057815716</v>
       </c>
       <c r="D3">
-        <v>6.679726295906143</v>
+        <v>6.675927260693648</v>
       </c>
       <c r="E3">
-        <v>12.48051639714327</v>
+        <v>12.51082567872902</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.91541003573828</v>
+        <v>37.72511748045942</v>
       </c>
       <c r="H3">
-        <v>2.018041780917234</v>
+        <v>1.992410312675637</v>
       </c>
       <c r="I3">
-        <v>3.092852160782517</v>
+        <v>3.077585984583358</v>
       </c>
       <c r="J3">
-        <v>12.29935127912833</v>
+        <v>12.20898303431444</v>
       </c>
       <c r="K3">
-        <v>17.80915046999215</v>
+        <v>16.5730127229913</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.58103844466555</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.19170282497355</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.52502498068304</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.35946639315689</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.40544195861621</v>
+      </c>
+      <c r="R3">
+        <v>12.20458501444957</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8671760205896</v>
+        <v>18.18521215371939</v>
       </c>
       <c r="C4">
-        <v>16.58422172578044</v>
+        <v>17.09398806370823</v>
       </c>
       <c r="D4">
-        <v>6.35529681751992</v>
+        <v>6.353148392913606</v>
       </c>
       <c r="E4">
-        <v>12.01311320862592</v>
+        <v>12.06126839945112</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.46882611197679</v>
+        <v>36.48759639427135</v>
       </c>
       <c r="H4">
-        <v>1.850182986989298</v>
+        <v>1.835584580771431</v>
       </c>
       <c r="I4">
-        <v>2.943379179873934</v>
+        <v>2.95026930665881</v>
       </c>
       <c r="J4">
-        <v>12.07276311312884</v>
+        <v>12.00852279868716</v>
       </c>
       <c r="K4">
-        <v>17.54415990332258</v>
+        <v>16.40114304663899</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.55457830734944</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.938221624591119</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.81062056603998</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.4585356218769</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.70444845584364</v>
+      </c>
+      <c r="R4">
+        <v>12.30173486674988</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46339971551794</v>
+        <v>17.81191877816898</v>
       </c>
       <c r="C5">
-        <v>16.24713412636988</v>
+        <v>16.73567879331201</v>
       </c>
       <c r="D5">
-        <v>6.221735741126196</v>
+        <v>6.2206576244575</v>
       </c>
       <c r="E5">
-        <v>11.81788885605599</v>
+        <v>11.87357434753237</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.84152019973818</v>
+        <v>35.94915448675031</v>
       </c>
       <c r="H5">
-        <v>1.780161309211687</v>
+        <v>1.770133902807175</v>
       </c>
       <c r="I5">
-        <v>2.881721194567854</v>
+        <v>2.898092233174704</v>
       </c>
       <c r="J5">
-        <v>11.97493853742697</v>
+        <v>11.92097513289616</v>
       </c>
       <c r="K5">
-        <v>17.4250753965713</v>
+        <v>16.32089785998921</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.53451195360746</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.832088362506573</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.50967534220827</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.49768194558375</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.40910670835636</v>
+      </c>
+      <c r="R5">
+        <v>12.34064574128291</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.38625421089856</v>
+        <v>17.74035208544383</v>
       </c>
       <c r="C6">
-        <v>16.1984179987614</v>
+        <v>16.68318157156572</v>
       </c>
       <c r="D6">
-        <v>6.202241207496204</v>
+        <v>6.201243815559457</v>
       </c>
       <c r="E6">
-        <v>11.78555335487353</v>
+        <v>11.84255384086604</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.70478267821173</v>
+        <v>35.82875515544989</v>
       </c>
       <c r="H6">
-        <v>1.768102187890087</v>
+        <v>1.758874646464454</v>
       </c>
       <c r="I6">
-        <v>2.871896329839557</v>
+        <v>2.89026433180059</v>
       </c>
       <c r="J6">
-        <v>11.95221650650583</v>
+        <v>11.90037322084326</v>
       </c>
       <c r="K6">
-        <v>17.39183914212091</v>
+        <v>16.29527206096676</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.52136209139504</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.8057049312084</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.45766834173651</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.5025099097504</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.35811102200317</v>
+      </c>
+      <c r="R6">
+        <v>12.3460236810107</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83712016277215</v>
+        <v>18.14651741647505</v>
       </c>
       <c r="C7">
-        <v>16.60067986454989</v>
+        <v>17.09067276926779</v>
       </c>
       <c r="D7">
-        <v>6.353355735344452</v>
+        <v>6.351148989093296</v>
       </c>
       <c r="E7">
-        <v>12.01153478252014</v>
+        <v>12.06326749625487</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.37492120806406</v>
+        <v>36.47763144019111</v>
       </c>
       <c r="H7">
-        <v>1.848296085054386</v>
+        <v>1.83322990232221</v>
       </c>
       <c r="I7">
-        <v>2.943458774257366</v>
+        <v>2.950651467571819</v>
       </c>
       <c r="J7">
-        <v>12.05394016144294</v>
+        <v>11.92596624569507</v>
       </c>
       <c r="K7">
-        <v>17.50605570578411</v>
+        <v>16.35136619688144</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.51615941312591</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.900352774664496</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.8025258564478</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.45451901915943</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.69088030552023</v>
+      </c>
+      <c r="R7">
+        <v>12.2980482199553</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72867334090631</v>
+        <v>19.87144531842991</v>
       </c>
       <c r="C8">
-        <v>18.26591332462496</v>
+        <v>18.81601889077972</v>
       </c>
       <c r="D8">
-        <v>7.011300914703429</v>
+        <v>7.005341090540251</v>
       </c>
       <c r="E8">
-        <v>12.96319079483165</v>
+        <v>12.98586752375792</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.31115562846205</v>
+        <v>39.1583932128144</v>
       </c>
       <c r="H8">
-        <v>2.191493882036197</v>
+        <v>2.152375196386814</v>
       </c>
       <c r="I8">
-        <v>3.249634113499581</v>
+        <v>3.209726664693127</v>
       </c>
       <c r="J8">
-        <v>12.51782695929088</v>
+        <v>12.18949626563472</v>
       </c>
       <c r="K8">
-        <v>18.04439055308014</v>
+        <v>16.66328379119668</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.53502431981987</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.40409047221734</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.25272070565365</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.24844680972303</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.10153874455429</v>
+      </c>
+      <c r="R8">
+        <v>12.09439338979545</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.04476699838803</v>
+        <v>22.92247223370121</v>
       </c>
       <c r="C9">
-        <v>21.18301935997661</v>
+        <v>21.8915761071167</v>
       </c>
       <c r="D9">
-        <v>8.170438389773103</v>
+        <v>8.15583766414197</v>
       </c>
       <c r="E9">
-        <v>14.66786292790477</v>
+        <v>14.62568290421218</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>47.80210059639279</v>
+        <v>43.93446784978372</v>
       </c>
       <c r="H9">
-        <v>2.826697761268031</v>
+        <v>2.743439971663895</v>
       </c>
       <c r="I9">
-        <v>3.821401686448327</v>
+        <v>3.694602733184915</v>
       </c>
       <c r="J9">
-        <v>13.44495263100086</v>
+        <v>12.93830153974178</v>
       </c>
       <c r="K9">
-        <v>19.15511665490952</v>
+        <v>17.38364083011869</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.61894481968573</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.58866923692197</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.82664914803825</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.85539201310671</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.62057820915292</v>
+      </c>
+      <c r="R9">
+        <v>11.70987599861512</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.18821851153442</v>
+        <v>24.85101284772196</v>
       </c>
       <c r="C10">
-        <v>23.08771380692108</v>
+        <v>23.80324927342594</v>
       </c>
       <c r="D10">
-        <v>8.943614860296002</v>
+        <v>8.921039134796995</v>
       </c>
       <c r="E10">
-        <v>15.36697155522715</v>
+        <v>15.28614897573163</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.18973545107303</v>
+        <v>47.25438746897881</v>
       </c>
       <c r="H10">
-        <v>3.244570426799963</v>
+        <v>3.127201223242995</v>
       </c>
       <c r="I10">
-        <v>4.218128868389346</v>
+        <v>4.027093307376922</v>
       </c>
       <c r="J10">
-        <v>14.02969236202026</v>
+        <v>13.05845432634389</v>
       </c>
       <c r="K10">
-        <v>19.81981115350407</v>
+        <v>17.70923221034316</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.51721825841073</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.33589260079124</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.24385367415171</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.54726931899997</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.97466057963475</v>
+      </c>
+      <c r="R10">
+        <v>11.41835240933197</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.86168789756241</v>
+        <v>25.44246867064254</v>
       </c>
       <c r="C11">
-        <v>23.42817722890343</v>
+        <v>23.93712409425655</v>
       </c>
       <c r="D11">
-        <v>9.270006139722247</v>
+        <v>9.243974207755988</v>
       </c>
       <c r="E11">
-        <v>12.14462720011801</v>
+        <v>11.9618453823515</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>49.59966390842293</v>
+        <v>46.58052245691368</v>
       </c>
       <c r="H11">
-        <v>3.798796184503267</v>
+        <v>3.690810820370239</v>
       </c>
       <c r="I11">
-        <v>4.327898476141833</v>
+        <v>4.1154555324323</v>
       </c>
       <c r="J11">
-        <v>13.60191993953231</v>
+        <v>11.96444197178407</v>
       </c>
       <c r="K11">
-        <v>18.9739261531161</v>
+        <v>16.76898929328101</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.71860991635491</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.78717925697174</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.26617177306839</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.27945928182879</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.94796369156532</v>
+      </c>
+      <c r="R11">
+        <v>11.26986156391038</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.02509725986262</v>
+        <v>25.60679554598111</v>
       </c>
       <c r="C12">
-        <v>23.30428026880731</v>
+        <v>23.68800777345058</v>
       </c>
       <c r="D12">
-        <v>9.387991345878518</v>
+        <v>9.361071046722717</v>
       </c>
       <c r="E12">
-        <v>10.13457417869061</v>
+        <v>9.809959929036356</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.63384975383737</v>
+        <v>45.1777280192423</v>
       </c>
       <c r="H12">
-        <v>4.784823083006555</v>
+        <v>4.700743008321188</v>
       </c>
       <c r="I12">
-        <v>4.343026754095455</v>
+        <v>4.125940906897574</v>
       </c>
       <c r="J12">
-        <v>13.13228690137636</v>
+        <v>11.245037034339</v>
       </c>
       <c r="K12">
-        <v>18.15884036061463</v>
+        <v>15.99575582935272</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.14102184662067</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.23021590034154</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.2891875647154</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.16614622379503</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.95894468518852</v>
+      </c>
+      <c r="R12">
+        <v>11.25447914856772</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.78325501511404</v>
+        <v>25.45126360210167</v>
       </c>
       <c r="C13">
-        <v>22.83525576747778</v>
+        <v>23.17933681224137</v>
       </c>
       <c r="D13">
-        <v>9.356012248274299</v>
+        <v>9.330442304817458</v>
       </c>
       <c r="E13">
-        <v>9.406413580692494</v>
+        <v>8.958055543425823</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.08695168984689</v>
+        <v>42.81170995556654</v>
       </c>
       <c r="H13">
-        <v>5.931211953915013</v>
+        <v>5.869687195500017</v>
       </c>
       <c r="I13">
-        <v>4.28709156832579</v>
+        <v>4.081138152519745</v>
       </c>
       <c r="J13">
-        <v>12.56791918397527</v>
+        <v>10.86387789785304</v>
       </c>
       <c r="K13">
-        <v>17.25366046403964</v>
+        <v>15.2795815976886</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.67335782753383</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.61234337489067</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.13074419519508</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.15620203723563</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.82671406750663</v>
+      </c>
+      <c r="R13">
+        <v>11.32017106723079</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.42243918051443</v>
+        <v>25.19007041654499</v>
       </c>
       <c r="C14">
-        <v>22.35001589110195</v>
+        <v>22.7024833519872</v>
       </c>
       <c r="D14">
-        <v>9.265596209977449</v>
+        <v>9.241935608287914</v>
       </c>
       <c r="E14">
-        <v>9.829188511190729</v>
+        <v>9.359970093953986</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>42.98598416740339</v>
+        <v>40.6732603220138</v>
       </c>
       <c r="H14">
-        <v>6.793140260808679</v>
+        <v>6.744842031525803</v>
       </c>
       <c r="I14">
-        <v>4.216895890588308</v>
+        <v>4.025980075389999</v>
       </c>
       <c r="J14">
-        <v>12.12146582786244</v>
+        <v>10.73040989243709</v>
       </c>
       <c r="K14">
-        <v>16.56640184260846</v>
+        <v>14.79056481361833</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.38372814209997</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.14049503307521</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.51007020947374</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.19945666047053</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.24119625966851</v>
+      </c>
+      <c r="R14">
+        <v>11.40019388730157</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.23865651932029</v>
+        <v>25.04815017157442</v>
       </c>
       <c r="C15">
-        <v>22.16168275004947</v>
+        <v>22.53158306678539</v>
       </c>
       <c r="D15">
-        <v>9.2111437201747</v>
+        <v>9.188407887734581</v>
       </c>
       <c r="E15">
-        <v>10.02675302000005</v>
+        <v>9.568998277403686</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>42.3172876981086</v>
+        <v>39.92643796678416</v>
       </c>
       <c r="H15">
-        <v>6.989468973894724</v>
+        <v>6.944754902674255</v>
       </c>
       <c r="I15">
-        <v>4.18431405472298</v>
+        <v>4.000924225718586</v>
       </c>
       <c r="J15">
-        <v>11.9871566464786</v>
+        <v>10.75103835161132</v>
       </c>
       <c r="K15">
-        <v>16.3687291285272</v>
+        <v>14.66993980536145</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.32438111272924</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.00233506009288</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.07143811207054</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.22620302906115</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.81836370292523</v>
+      </c>
+      <c r="R15">
+        <v>11.43029834622309</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.38338337764184</v>
+        <v>24.34168370538369</v>
       </c>
       <c r="C16">
-        <v>21.4482393493285</v>
+        <v>21.94583250693837</v>
       </c>
       <c r="D16">
-        <v>8.898974637219284</v>
+        <v>8.88038653184293</v>
       </c>
       <c r="E16">
-        <v>9.737774324592969</v>
+        <v>9.354636397466086</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.1704311612855</v>
+        <v>38.21168409509855</v>
       </c>
       <c r="H16">
-        <v>6.704367174319128</v>
+        <v>6.667250290186537</v>
       </c>
       <c r="I16">
-        <v>4.02819775215984</v>
+        <v>3.876857242740795</v>
       </c>
       <c r="J16">
-        <v>11.81802392274585</v>
+        <v>11.23278361368278</v>
       </c>
       <c r="K16">
-        <v>16.21737308255741</v>
+        <v>14.75088105946743</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.49290762728481</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.868973191309086</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.75963226135811</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.35004862037427</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.56681389260065</v>
+      </c>
+      <c r="R16">
+        <v>11.50803637901264</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.9130417713149</v>
+        <v>23.91940208721509</v>
       </c>
       <c r="C17">
-        <v>21.16204561750857</v>
+        <v>21.73273712843589</v>
       </c>
       <c r="D17">
-        <v>8.704851625932911</v>
+        <v>8.688245968202825</v>
       </c>
       <c r="E17">
-        <v>9.117253106923103</v>
+        <v>8.777434671333145</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.45536260049851</v>
+        <v>38.17791373929943</v>
       </c>
       <c r="H17">
-        <v>5.974816441829009</v>
+        <v>5.937778725432078</v>
       </c>
       <c r="I17">
-        <v>3.945144160778284</v>
+        <v>3.809542356264168</v>
       </c>
       <c r="J17">
-        <v>11.93234183205929</v>
+        <v>11.60195198510837</v>
       </c>
       <c r="K17">
-        <v>16.47360144030852</v>
+        <v>15.05925429107948</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.77218422355416</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.00729142242491</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.42021932980947</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.42098343008086</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.24857583168239</v>
+      </c>
+      <c r="R17">
+        <v>11.53380412537919</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.75129370565523</v>
+        <v>23.73889484591742</v>
       </c>
       <c r="C18">
-        <v>21.2094479627093</v>
+        <v>21.84479242331087</v>
       </c>
       <c r="D18">
-        <v>8.594267816549744</v>
+        <v>8.578266649010883</v>
       </c>
       <c r="E18">
-        <v>9.019414502289031</v>
+        <v>8.739228968051782</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.0693326732027</v>
+        <v>39.51195459976788</v>
       </c>
       <c r="H18">
-        <v>4.841178305174111</v>
+        <v>4.795975517260596</v>
       </c>
       <c r="I18">
-        <v>3.917328383769412</v>
+        <v>3.784940704482746</v>
       </c>
       <c r="J18">
-        <v>12.31359458527728</v>
+        <v>12.04464881624944</v>
       </c>
       <c r="K18">
-        <v>17.13415287924771</v>
+        <v>15.6515918888082</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.22120709347358</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.43241931250204</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.0038686810549</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.47502951388236</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.83155502057728</v>
+      </c>
+      <c r="R18">
+        <v>11.53023038480289</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81786517344127</v>
+        <v>23.74357800063953</v>
       </c>
       <c r="C19">
-        <v>21.55525515986428</v>
+        <v>22.25476256214401</v>
       </c>
       <c r="D19">
-        <v>8.56056248319145</v>
+        <v>8.544103578444302</v>
       </c>
       <c r="E19">
-        <v>10.59405336169528</v>
+        <v>10.40902870722315</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>45.46825045042275</v>
+        <v>41.63192726689948</v>
       </c>
       <c r="H19">
-        <v>3.679012581372283</v>
+        <v>3.613966124149322</v>
       </c>
       <c r="I19">
-        <v>3.944292526583919</v>
+        <v>3.807271518301397</v>
       </c>
       <c r="J19">
-        <v>12.84722761659443</v>
+        <v>12.53426620896897</v>
       </c>
       <c r="K19">
-        <v>18.00836551693841</v>
+        <v>16.38566310739773</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.74737442960975</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.01547957803177</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.18612925949021</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.53865594549269</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.00000609582867</v>
+      </c>
+      <c r="R19">
+        <v>11.52582256722632</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.58157701338048</v>
+        <v>24.33148190159563</v>
       </c>
       <c r="C20">
-        <v>22.64613583638618</v>
+        <v>23.41033729020612</v>
       </c>
       <c r="D20">
-        <v>8.745186787330386</v>
+        <v>8.725209833707464</v>
       </c>
       <c r="E20">
-        <v>15.16679603716574</v>
+        <v>15.08690272602216</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.08600939634992</v>
+        <v>45.95044896160868</v>
       </c>
       <c r="H20">
-        <v>3.131274290740082</v>
+        <v>3.025112724107859</v>
       </c>
       <c r="I20">
-        <v>4.117030706768421</v>
+        <v>3.949157503283145</v>
       </c>
       <c r="J20">
-        <v>13.82532440313392</v>
+        <v>13.18726278009857</v>
       </c>
       <c r="K20">
-        <v>19.53747528207299</v>
+        <v>17.5749242587026</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.51040035055111</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.09846624701708</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.85669868482904</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.61511525214353</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.62086245759688</v>
+      </c>
+      <c r="R20">
+        <v>11.49145801200385</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.20293170136948</v>
+        <v>25.63284808398903</v>
       </c>
       <c r="C21">
-        <v>24.13091346791487</v>
+        <v>24.64779938929221</v>
       </c>
       <c r="D21">
-        <v>9.316540654507021</v>
+        <v>9.287938928229353</v>
       </c>
       <c r="E21">
-        <v>16.3871098247174</v>
+        <v>16.34236672675552</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.19627347857237</v>
+        <v>50.12820833208112</v>
       </c>
       <c r="H21">
-        <v>3.488739073921818</v>
+        <v>3.345001473337352</v>
       </c>
       <c r="I21">
-        <v>4.429708402718522</v>
+        <v>4.196513264720939</v>
       </c>
       <c r="J21">
-        <v>14.40136391379815</v>
+        <v>12.32620510195786</v>
       </c>
       <c r="K21">
-        <v>20.26629503037298</v>
+        <v>17.7513716076194</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.37962570755792</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.61881454360376</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.36325231729129</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.4088933658896</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.9923507334056</v>
+      </c>
+      <c r="R21">
+        <v>11.26659919123476</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.22677089216447</v>
+        <v>26.44944852521084</v>
       </c>
       <c r="C22">
-        <v>25.0198358669481</v>
+        <v>25.36127826253916</v>
       </c>
       <c r="D22">
-        <v>9.676447870481908</v>
+        <v>9.641789138983807</v>
       </c>
       <c r="E22">
-        <v>16.93004480942911</v>
+        <v>16.90754536997548</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.08089538590563</v>
+        <v>52.77989139371932</v>
       </c>
       <c r="H22">
-        <v>3.705931999244055</v>
+        <v>3.5378777524911</v>
       </c>
       <c r="I22">
-        <v>4.627006721430174</v>
+        <v>4.350406851676644</v>
       </c>
       <c r="J22">
-        <v>14.75405917562945</v>
+        <v>11.68932286382611</v>
       </c>
       <c r="K22">
-        <v>20.71581838351416</v>
+        <v>17.83216063682708</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.2691615541876</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.93319394649701</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.16487026099476</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.26980484481389</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.70358179214395</v>
+      </c>
+      <c r="R22">
+        <v>11.11984195439461</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.70557345089772</v>
+        <v>26.05676290653146</v>
       </c>
       <c r="C23">
-        <v>24.53080278624236</v>
+        <v>25.00150046805205</v>
       </c>
       <c r="D23">
-        <v>9.485731465139828</v>
+        <v>9.454539275605674</v>
       </c>
       <c r="E23">
-        <v>16.64094814801024</v>
+        <v>16.59883452994569</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.15590460705687</v>
+        <v>51.28256163262074</v>
       </c>
       <c r="H23">
-        <v>3.591276386032229</v>
+        <v>3.437256322209003</v>
       </c>
       <c r="I23">
-        <v>4.520981391789132</v>
+        <v>4.267775146999097</v>
       </c>
       <c r="J23">
-        <v>14.58353453601053</v>
+        <v>12.18801592581461</v>
       </c>
       <c r="K23">
-        <v>20.51354293796319</v>
+        <v>17.85909683872131</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.3762543055521</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.82226822216891</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.74352331125225</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.3487439954245</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.34146611922251</v>
+      </c>
+      <c r="R23">
+        <v>11.2010047785219</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.60952708228141</v>
+        <v>24.35332038855256</v>
       </c>
       <c r="C24">
-        <v>22.64105456925528</v>
+        <v>23.41393688074007</v>
       </c>
       <c r="D24">
-        <v>8.736703771575524</v>
+        <v>8.716682163955424</v>
       </c>
       <c r="E24">
-        <v>15.51404081660445</v>
+        <v>15.440001194741</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.43730981900246</v>
+        <v>46.26058392499181</v>
       </c>
       <c r="H24">
-        <v>3.149186153895899</v>
+        <v>3.042452615403048</v>
       </c>
       <c r="I24">
-        <v>4.116547360003654</v>
+        <v>3.946121852273698</v>
       </c>
       <c r="J24">
-        <v>13.90544808011009</v>
+        <v>13.26961694149407</v>
       </c>
       <c r="K24">
-        <v>19.68630505600845</v>
+        <v>17.70781998185808</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.60817139217642</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.20049036255013</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.08023525836383</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.63973106148859</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.84342442070249</v>
+      </c>
+      <c r="R24">
+        <v>11.50303874638823</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.15614515024728</v>
+        <v>22.11708069353679</v>
       </c>
       <c r="C25">
-        <v>20.45822146805705</v>
+        <v>21.14879277983775</v>
       </c>
       <c r="D25">
-        <v>7.870396582504953</v>
+        <v>7.8584876682422</v>
       </c>
       <c r="E25">
-        <v>14.2252541108169</v>
+        <v>14.19638851542521</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>46.22940797290423</v>
+        <v>42.45421305186248</v>
       </c>
       <c r="H25">
-        <v>2.657263489864477</v>
+        <v>2.586889448771597</v>
       </c>
       <c r="I25">
-        <v>3.670693376137182</v>
+        <v>3.57015597935185</v>
       </c>
       <c r="J25">
-        <v>13.16683927790171</v>
+        <v>12.79888286440835</v>
       </c>
       <c r="K25">
-        <v>18.79422156510636</v>
+        <v>17.15361396100944</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.57466219891763</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.23060027185711</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.15389380990687</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.95399068989286</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.9698704878347</v>
+      </c>
+      <c r="R25">
+        <v>11.81090911113491</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
